--- a/Julio/22 julio/libres/PLANTILLA LISTA DE ASPIRANTES_TECLIBRES.xlsx
+++ b/Julio/22 julio/libres/PLANTILLA LISTA DE ASPIRANTES_TECLIBRES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MaxoC\OneDrive\Documents\EVALUATEC2024\Julio\22 julio\libres\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96A4F272-0B21-47BD-93E9-49B84759FC61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAF91E5-2C9D-43DF-9BBA-2513BA43C8FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D610CFFB-2790-104B-A52B-2B33694C28D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -2972,7 +2972,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2"/>
     <xf numFmtId="18" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -3032,6 +3032,28 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3041,33 +3063,10 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="2" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Encabezado 1" xfId="1" builtinId="16"/>
@@ -3075,7 +3074,7 @@
     <cellStyle name="Hyperlink" xfId="3" xr:uid="{00000000-000B-0000-0000-000008000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
+  <dxfs count="23">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -3098,15 +3097,126 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
+        <color rgb="FF9C0006"/>
       </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <numFmt numFmtId="165" formatCode="h:mm\ AM/PM"/>
@@ -3130,6 +3240,18 @@
     <dxf>
       <alignment horizontal="center"/>
     </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+      </font>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -3150,19 +3272,19 @@
     <sortCondition ref="E4:E469"/>
   </sortState>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{F5111305-CA2B-DF41-BA05-5C9A177B7523}" name=" " dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{D956ADB6-2882-CB4B-9C6B-032AC358A5C1}" name="NOMBRE ASPIRANTE"/>
+    <tableColumn id="1" xr3:uid="{F5111305-CA2B-DF41-BA05-5C9A177B7523}" name=" " dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{D956ADB6-2882-CB4B-9C6B-032AC358A5C1}" name="NOMBRE ASPIRANTE" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{0108DA77-7D27-7A48-8EFD-9B1F2B8F8E02}" name="CURP"/>
     <tableColumn id="4" xr3:uid="{12ECD994-2599-D747-9343-DEBBC900F696}" name="CORREO ELECTRONICO"/>
     <tableColumn id="13" xr3:uid="{2CF83F94-7C47-E74B-A32A-851420E76EC2}" name="CLAVE CARRERA" dataCellStyle="Hipervínculo"/>
     <tableColumn id="5" xr3:uid="{EC8B66B2-D538-484E-9EC1-54F93F611149}" name="CARRERA"/>
-    <tableColumn id="6" xr3:uid="{A03F9403-44DC-3442-924E-BEF260777F9E}" name="VERSION" dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{A89BFD66-403C-B546-AB81-3B9805EF36E6}" name="FECHA SIMULACRO" dataDxfId="8"/>
-    <tableColumn id="8" xr3:uid="{96CA5407-7E0C-C849-8EC4-BA775188CD65}" name="HORA DE SIMULACRO" dataDxfId="7"/>
-    <tableColumn id="9" xr3:uid="{7AF8570F-2BED-A94F-B1CD-180258ABC8CA}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{FD3E5F78-2C8E-FB4D-924C-FA114DEF91F1}" name="HORA APLICACIÓN OFICIAL" dataDxfId="5"/>
-    <tableColumn id="11" xr3:uid="{B5C530FC-6A39-C746-86DE-949977537C53}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="4"/>
-    <tableColumn id="12" xr3:uid="{44D56D16-D5EE-CE4F-8BAC-A3A00266F657}" name="AULA" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{A03F9403-44DC-3442-924E-BEF260777F9E}" name="VERSION" dataDxfId="21"/>
+    <tableColumn id="7" xr3:uid="{A89BFD66-403C-B546-AB81-3B9805EF36E6}" name="FECHA SIMULACRO" dataDxfId="20"/>
+    <tableColumn id="8" xr3:uid="{96CA5407-7E0C-C849-8EC4-BA775188CD65}" name="HORA DE SIMULACRO" dataDxfId="19"/>
+    <tableColumn id="9" xr3:uid="{7AF8570F-2BED-A94F-B1CD-180258ABC8CA}" name="FECHA APLICACIÓN OFICIAL" dataDxfId="18"/>
+    <tableColumn id="10" xr3:uid="{FD3E5F78-2C8E-FB4D-924C-FA114DEF91F1}" name="HORA APLICACIÓN OFICIAL" dataDxfId="17"/>
+    <tableColumn id="11" xr3:uid="{B5C530FC-6A39-C746-86DE-949977537C53}" name="¿ASPIRANTE EN PLANTEL?" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{44D56D16-D5EE-CE4F-8BAC-A3A00266F657}" name="AULA" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3467,14 +3589,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35D137AA-41E5-5140-AC23-8A814C9A306A}">
   <dimension ref="A1:O469"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D203" workbookViewId="0">
-      <selection activeCell="E220" sqref="E220:F220"/>
+    <sheetView tabSelected="1" topLeftCell="A215" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5:A249"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.5" style="38" customWidth="1"/>
-    <col min="2" max="2" width="31.25" customWidth="1"/>
+    <col min="1" max="1" width="8.5" customWidth="1"/>
+    <col min="2" max="2" width="31.25" style="48" customWidth="1"/>
     <col min="3" max="3" width="21.125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.25" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
@@ -3492,31 +3614,31 @@
       <c r="D1" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="37" t="s">
+      <c r="L1" s="47" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="35"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="35"/>
-      <c r="H2" s="35"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="35"/>
-      <c r="L2" s="37"/>
+      <c r="D2" s="45"/>
+      <c r="E2" s="45"/>
+      <c r="F2" s="45"/>
+      <c r="G2" s="45"/>
+      <c r="H2" s="45"/>
+      <c r="I2" s="45"/>
+      <c r="J2" s="45"/>
+      <c r="L2" s="47"/>
     </row>
     <row r="3" spans="1:15" ht="16.5" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="L3" s="37"/>
+      <c r="L3" s="47"/>
     </row>
     <row r="4" spans="1:15" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="48" t="s">
         <v>3</v>
       </c>
       <c r="C4" t="s">
@@ -3554,10 +3676,10 @@
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="39">
+      <c r="A5" s="35">
         <v>110001</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="49" t="s">
         <v>21</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -3595,10 +3717,10 @@
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="40">
+      <c r="A6" s="36">
         <v>110002</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="49" t="s">
         <v>26</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -3634,14 +3756,14 @@
       <c r="M6" s="19" t="s">
         <v>546</v>
       </c>
-      <c r="N6" s="36"/>
-      <c r="O6" s="36"/>
+      <c r="N6" s="46"/>
+      <c r="O6" s="46"/>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="39">
+      <c r="A7" s="35">
         <v>110003</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="49" t="s">
         <v>30</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -3679,10 +3801,10 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="40">
+      <c r="A8" s="36">
         <v>110004</v>
       </c>
-      <c r="B8" s="19" t="s">
+      <c r="B8" s="49" t="s">
         <v>38</v>
       </c>
       <c r="C8" s="19" t="s">
@@ -3720,10 +3842,10 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="39">
+      <c r="A9" s="35">
         <v>110005</v>
       </c>
-      <c r="B9" s="19" t="s">
+      <c r="B9" s="49" t="s">
         <v>49</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -3761,10 +3883,10 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="41">
+      <c r="A10" s="37">
         <v>110006</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="50" t="s">
         <v>50</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -3802,10 +3924,10 @@
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="39">
+      <c r="A11" s="35">
         <v>110007</v>
       </c>
-      <c r="B11" s="19" t="s">
+      <c r="B11" s="49" t="s">
         <v>53</v>
       </c>
       <c r="C11" s="19" t="s">
@@ -3843,10 +3965,10 @@
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="40">
+      <c r="A12" s="36">
         <v>110008</v>
       </c>
-      <c r="B12" s="19" t="s">
+      <c r="B12" s="49" t="s">
         <v>54</v>
       </c>
       <c r="C12" s="19" t="s">
@@ -3884,10 +4006,10 @@
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="39">
+      <c r="A13" s="35">
         <v>110009</v>
       </c>
-      <c r="B13" s="19" t="s">
+      <c r="B13" s="49" t="s">
         <v>57</v>
       </c>
       <c r="C13" s="19" t="s">
@@ -3925,10 +4047,10 @@
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="39">
+      <c r="A14" s="35">
         <v>110010</v>
       </c>
-      <c r="B14" s="19" t="s">
+      <c r="B14" s="49" t="s">
         <v>58</v>
       </c>
       <c r="C14" s="19" t="s">
@@ -3966,10 +4088,10 @@
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="40">
+      <c r="A15" s="36">
         <v>110011</v>
       </c>
-      <c r="B15" s="19" t="s">
+      <c r="B15" s="49" t="s">
         <v>99</v>
       </c>
       <c r="C15" s="19" t="s">
@@ -4007,10 +4129,10 @@
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="40">
+      <c r="A16" s="36">
         <v>110012</v>
       </c>
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="49" t="s">
         <v>100</v>
       </c>
       <c r="C16" s="19" t="s">
@@ -4048,10 +4170,10 @@
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A17" s="40">
+      <c r="A17" s="36">
         <v>110013</v>
       </c>
-      <c r="B17" s="19" t="s">
+      <c r="B17" s="49" t="s">
         <v>101</v>
       </c>
       <c r="C17" s="19" t="s">
@@ -4089,10 +4211,10 @@
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A18" s="39">
+      <c r="A18" s="35">
         <v>110014</v>
       </c>
-      <c r="B18" s="19" t="s">
+      <c r="B18" s="49" t="s">
         <v>105</v>
       </c>
       <c r="C18" s="19" t="s">
@@ -4130,10 +4252,10 @@
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A19" s="39">
+      <c r="A19" s="35">
         <v>110015</v>
       </c>
-      <c r="B19" s="19" t="s">
+      <c r="B19" s="49" t="s">
         <v>121</v>
       </c>
       <c r="C19" s="19" t="s">
@@ -4171,10 +4293,10 @@
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A20" s="39">
+      <c r="A20" s="35">
         <v>110016</v>
       </c>
-      <c r="B20" s="19" t="s">
+      <c r="B20" s="49" t="s">
         <v>127</v>
       </c>
       <c r="C20" s="19" t="s">
@@ -4212,10 +4334,10 @@
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A21" s="40">
+      <c r="A21" s="36">
         <v>110017</v>
       </c>
-      <c r="B21" s="19" t="s">
+      <c r="B21" s="49" t="s">
         <v>132</v>
       </c>
       <c r="C21" s="19" t="s">
@@ -4253,10 +4375,10 @@
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A22" s="39">
+      <c r="A22" s="35">
         <v>110018</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="49" t="s">
         <v>133</v>
       </c>
       <c r="C22" s="19" t="s">
@@ -4294,10 +4416,10 @@
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="40">
+      <c r="A23" s="36">
         <v>110019</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="49" t="s">
         <v>134</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -4335,10 +4457,10 @@
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A24" s="39">
+      <c r="A24" s="35">
         <v>110020</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="49" t="s">
         <v>139</v>
       </c>
       <c r="C24" s="19" t="s">
@@ -4376,10 +4498,10 @@
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A25" s="40">
+      <c r="A25" s="36">
         <v>110021</v>
       </c>
-      <c r="B25" s="19" t="s">
+      <c r="B25" s="49" t="s">
         <v>144</v>
       </c>
       <c r="C25" s="19" t="s">
@@ -4417,10 +4539,10 @@
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A26" s="40">
+      <c r="A26" s="36">
         <v>110022</v>
       </c>
-      <c r="B26" s="19" t="s">
+      <c r="B26" s="49" t="s">
         <v>148</v>
       </c>
       <c r="C26" s="19" t="s">
@@ -4458,10 +4580,10 @@
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A27" s="40">
+      <c r="A27" s="36">
         <v>110023</v>
       </c>
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="49" t="s">
         <v>149</v>
       </c>
       <c r="C27" s="19" t="s">
@@ -4470,7 +4592,7 @@
       <c r="D27" s="22" t="s">
         <v>518</v>
       </c>
-      <c r="E27" s="50" t="s">
+      <c r="E27" s="44" t="s">
         <v>554</v>
       </c>
       <c r="F27" s="19" t="s">
@@ -4499,10 +4621,10 @@
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A28" s="40">
+      <c r="A28" s="36">
         <v>110024</v>
       </c>
-      <c r="B28" s="19" t="s">
+      <c r="B28" s="49" t="s">
         <v>154</v>
       </c>
       <c r="C28" s="19" t="s">
@@ -4540,10 +4662,10 @@
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A29" s="40">
+      <c r="A29" s="36">
         <v>110025</v>
       </c>
-      <c r="B29" s="19" t="s">
+      <c r="B29" s="49" t="s">
         <v>167</v>
       </c>
       <c r="C29" s="19" t="s">
@@ -4581,10 +4703,10 @@
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A30" s="40">
+      <c r="A30" s="36">
         <v>110026</v>
       </c>
-      <c r="B30" s="19" t="s">
+      <c r="B30" s="49" t="s">
         <v>169</v>
       </c>
       <c r="C30" s="19" t="s">
@@ -4593,7 +4715,7 @@
       <c r="D30" s="22" t="s">
         <v>538</v>
       </c>
-      <c r="E30" s="50" t="s">
+      <c r="E30" s="44" t="s">
         <v>554</v>
       </c>
       <c r="F30" s="19" t="s">
@@ -4622,10 +4744,10 @@
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A31" s="40">
+      <c r="A31" s="36">
         <v>110028</v>
       </c>
-      <c r="B31" s="19" t="s">
+      <c r="B31" s="49" t="s">
         <v>605</v>
       </c>
       <c r="C31" s="19" t="s">
@@ -4634,7 +4756,7 @@
       <c r="D31" s="21" t="s">
         <v>795</v>
       </c>
-      <c r="E31" s="50" t="s">
+      <c r="E31" s="44" t="s">
         <v>554</v>
       </c>
       <c r="F31" s="19" t="s">
@@ -4663,10 +4785,10 @@
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A32" s="40">
+      <c r="A32" s="36">
         <v>110029</v>
       </c>
-      <c r="B32" s="19" t="s">
+      <c r="B32" s="49" t="s">
         <v>606</v>
       </c>
       <c r="C32" s="19" t="s">
@@ -4704,10 +4826,10 @@
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" s="39">
+      <c r="A33" s="35">
         <v>110030</v>
       </c>
-      <c r="B33" s="19" t="s">
+      <c r="B33" s="49" t="s">
         <v>607</v>
       </c>
       <c r="C33" s="19" t="s">
@@ -4716,7 +4838,7 @@
       <c r="D33" s="21" t="s">
         <v>797</v>
       </c>
-      <c r="E33" s="50" t="s">
+      <c r="E33" s="44" t="s">
         <v>554</v>
       </c>
       <c r="F33" s="19" t="s">
@@ -4745,10 +4867,10 @@
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" s="39">
+      <c r="A34" s="35">
         <v>110031</v>
       </c>
-      <c r="B34" s="19" t="s">
+      <c r="B34" s="49" t="s">
         <v>608</v>
       </c>
       <c r="C34" s="19" t="s">
@@ -4786,10 +4908,10 @@
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" s="39">
+      <c r="A35" s="35">
         <v>110032</v>
       </c>
-      <c r="B35" s="19" t="s">
+      <c r="B35" s="49" t="s">
         <v>609</v>
       </c>
       <c r="C35" s="19" t="s">
@@ -4827,10 +4949,10 @@
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" s="39">
+      <c r="A36" s="35">
         <v>110033</v>
       </c>
-      <c r="B36" s="19" t="s">
+      <c r="B36" s="49" t="s">
         <v>610</v>
       </c>
       <c r="C36" s="19" t="s">
@@ -4839,7 +4961,7 @@
       <c r="D36" s="21" t="s">
         <v>800</v>
       </c>
-      <c r="E36" s="50" t="s">
+      <c r="E36" s="44" t="s">
         <v>554</v>
       </c>
       <c r="F36" s="19" t="s">
@@ -4868,10 +4990,10 @@
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" s="39">
+      <c r="A37" s="35">
         <v>110027</v>
       </c>
-      <c r="B37" s="19" t="s">
+      <c r="B37" s="49" t="s">
         <v>616</v>
       </c>
       <c r="C37" s="19" t="s">
@@ -4909,10 +5031,10 @@
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" s="39">
+      <c r="A38" s="35">
         <v>110034</v>
       </c>
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="49" t="s">
         <v>618</v>
       </c>
       <c r="C38" s="19" t="s">
@@ -4950,10 +5072,10 @@
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" s="39">
+      <c r="A39" s="35">
         <v>110035</v>
       </c>
-      <c r="B39" s="19" t="s">
+      <c r="B39" s="49" t="s">
         <v>653</v>
       </c>
       <c r="C39" s="19" t="s">
@@ -4991,10 +5113,10 @@
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" s="39" t="s">
+      <c r="A40" s="35" t="s">
         <v>586</v>
       </c>
-      <c r="B40" s="19" t="s">
+      <c r="B40" s="49" t="s">
         <v>660</v>
       </c>
       <c r="C40" s="19" t="s">
@@ -5032,10 +5154,10 @@
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" s="39">
+      <c r="A41" s="35">
         <v>110036</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="49" t="s">
         <v>661</v>
       </c>
       <c r="C41" s="19" t="s">
@@ -5073,10 +5195,10 @@
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" s="40">
+      <c r="A42" s="36">
         <v>110037</v>
       </c>
-      <c r="B42" s="19" t="s">
+      <c r="B42" s="49" t="s">
         <v>667</v>
       </c>
       <c r="C42" s="19" t="s">
@@ -5114,10 +5236,10 @@
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" s="39">
+      <c r="A43" s="35">
         <v>110038</v>
       </c>
-      <c r="B43" s="19" t="s">
+      <c r="B43" s="49" t="s">
         <v>670</v>
       </c>
       <c r="C43" s="19" t="s">
@@ -5155,10 +5277,10 @@
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" s="39">
+      <c r="A44" s="35">
         <v>110039</v>
       </c>
-      <c r="B44" s="19" t="s">
+      <c r="B44" s="49" t="s">
         <v>680</v>
       </c>
       <c r="C44" s="19" t="s">
@@ -5196,10 +5318,10 @@
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" s="39">
+      <c r="A45" s="35">
         <v>110040</v>
       </c>
-      <c r="B45" s="19" t="s">
+      <c r="B45" s="49" t="s">
         <v>683</v>
       </c>
       <c r="C45" s="19" t="s">
@@ -5237,10 +5359,10 @@
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" s="39">
+      <c r="A46" s="35">
         <v>110041</v>
       </c>
-      <c r="B46" s="19" t="s">
+      <c r="B46" s="49" t="s">
         <v>695</v>
       </c>
       <c r="C46" s="19" t="s">
@@ -5278,10 +5400,10 @@
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" s="39" t="s">
+      <c r="A47" s="35" t="s">
         <v>171</v>
       </c>
-      <c r="B47" s="19" t="s">
+      <c r="B47" s="49" t="s">
         <v>32</v>
       </c>
       <c r="C47" s="19" t="s">
@@ -5319,10 +5441,10 @@
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" s="39" t="s">
+      <c r="A48" s="35" t="s">
         <v>189</v>
       </c>
-      <c r="B48" s="19" t="s">
+      <c r="B48" s="49" t="s">
         <v>70</v>
       </c>
       <c r="C48" s="19" t="s">
@@ -5360,10 +5482,10 @@
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" s="39" t="s">
+      <c r="A49" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="B49" s="19" t="s">
+      <c r="B49" s="49" t="s">
         <v>82</v>
       </c>
       <c r="C49" s="19" t="s">
@@ -5372,7 +5494,7 @@
       <c r="D49" s="21" t="s">
         <v>451</v>
       </c>
-      <c r="E49" s="49" t="s">
+      <c r="E49" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F49" s="19" t="s">
@@ -5401,10 +5523,10 @@
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" s="39" t="s">
+      <c r="A50" s="35" t="s">
         <v>202</v>
       </c>
-      <c r="B50" s="19" t="s">
+      <c r="B50" s="49" t="s">
         <v>96</v>
       </c>
       <c r="C50" s="19" t="s">
@@ -5442,10 +5564,10 @@
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" s="39" t="s">
+      <c r="A51" s="35" t="s">
         <v>204</v>
       </c>
-      <c r="B51" s="19" t="s">
+      <c r="B51" s="49" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="19" t="s">
@@ -5454,7 +5576,7 @@
       <c r="D51" s="21" t="s">
         <v>471</v>
       </c>
-      <c r="E51" s="49" t="s">
+      <c r="E51" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F51" s="19" t="s">
@@ -5483,10 +5605,10 @@
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" s="39" t="s">
+      <c r="A52" s="35" t="s">
         <v>207</v>
       </c>
-      <c r="B52" s="19" t="s">
+      <c r="B52" s="49" t="s">
         <v>106</v>
       </c>
       <c r="C52" s="19" t="s">
@@ -5524,10 +5646,10 @@
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" s="39" t="s">
+      <c r="A53" s="35" t="s">
         <v>208</v>
       </c>
-      <c r="B53" s="19" t="s">
+      <c r="B53" s="49" t="s">
         <v>108</v>
       </c>
       <c r="C53" s="19" t="s">
@@ -5565,10 +5687,10 @@
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" s="39" t="s">
+      <c r="A54" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B54" s="19" t="s">
+      <c r="B54" s="49" t="s">
         <v>112</v>
       </c>
       <c r="C54" s="19" t="s">
@@ -5606,10 +5728,10 @@
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" s="39" t="s">
+      <c r="A55" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="B55" s="19" t="s">
+      <c r="B55" s="49" t="s">
         <v>113</v>
       </c>
       <c r="C55" s="19" t="s">
@@ -5647,10 +5769,10 @@
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" s="39" t="s">
+      <c r="A56" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B56" s="19" t="s">
+      <c r="B56" s="49" t="s">
         <v>123</v>
       </c>
       <c r="C56" s="19" t="s">
@@ -5688,10 +5810,10 @@
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" s="39" t="s">
+      <c r="A57" s="35" t="s">
         <v>224</v>
       </c>
-      <c r="B57" s="19" t="s">
+      <c r="B57" s="49" t="s">
         <v>142</v>
       </c>
       <c r="C57" s="19" t="s">
@@ -5729,10 +5851,10 @@
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" s="39" t="s">
+      <c r="A58" s="35" t="s">
         <v>225</v>
       </c>
-      <c r="B58" s="19" t="s">
+      <c r="B58" s="49" t="s">
         <v>143</v>
       </c>
       <c r="C58" s="19" t="s">
@@ -5770,10 +5892,10 @@
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" s="39" t="s">
+      <c r="A59" s="35" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="19" t="s">
+      <c r="B59" s="49" t="s">
         <v>158</v>
       </c>
       <c r="C59" s="19" t="s">
@@ -5811,10 +5933,10 @@
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" s="39" t="s">
+      <c r="A60" s="35" t="s">
         <v>560</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="49" t="s">
         <v>614</v>
       </c>
       <c r="C60" s="19" t="s">
@@ -5823,7 +5945,7 @@
       <c r="D60" s="21" t="s">
         <v>804</v>
       </c>
-      <c r="E60" s="49" t="s">
+      <c r="E60" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F60" s="19" t="s">
@@ -5852,10 +5974,10 @@
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" s="39" t="s">
+      <c r="A61" s="35" t="s">
         <v>561</v>
       </c>
-      <c r="B61" s="19" t="s">
+      <c r="B61" s="49" t="s">
         <v>615</v>
       </c>
       <c r="C61" s="19" t="s">
@@ -5864,7 +5986,7 @@
       <c r="D61" s="21" t="s">
         <v>805</v>
       </c>
-      <c r="E61" s="49" t="s">
+      <c r="E61" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F61" s="19" t="s">
@@ -5893,10 +6015,10 @@
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" s="39" t="s">
+      <c r="A62" s="35" t="s">
         <v>564</v>
       </c>
-      <c r="B62" s="19" t="s">
+      <c r="B62" s="49" t="s">
         <v>620</v>
       </c>
       <c r="C62" s="19" t="s">
@@ -5905,7 +6027,7 @@
       <c r="D62" s="21" t="s">
         <v>810</v>
       </c>
-      <c r="E62" s="49" t="s">
+      <c r="E62" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F62" s="19" t="s">
@@ -5934,10 +6056,10 @@
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" s="39" t="s">
+      <c r="A63" s="35" t="s">
         <v>565</v>
       </c>
-      <c r="B63" s="19" t="s">
+      <c r="B63" s="49" t="s">
         <v>621</v>
       </c>
       <c r="C63" s="19" t="s">
@@ -5975,10 +6097,10 @@
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" s="39" t="s">
+      <c r="A64" s="35" t="s">
         <v>566</v>
       </c>
-      <c r="B64" s="19" t="s">
+      <c r="B64" s="49" t="s">
         <v>623</v>
       </c>
       <c r="C64" s="19" t="s">
@@ -6016,10 +6138,10 @@
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" s="39">
+      <c r="A65" s="35">
         <v>170008</v>
       </c>
-      <c r="B65" s="19" t="s">
+      <c r="B65" s="49" t="s">
         <v>624</v>
       </c>
       <c r="C65" s="19" t="s">
@@ -6057,10 +6179,10 @@
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" s="39" t="s">
+      <c r="A66" s="35" t="s">
         <v>569</v>
       </c>
-      <c r="B66" s="19" t="s">
+      <c r="B66" s="49" t="s">
         <v>627</v>
       </c>
       <c r="C66" s="19" t="s">
@@ -6098,10 +6220,10 @@
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" s="39" t="s">
+      <c r="A67" s="35" t="s">
         <v>574</v>
       </c>
-      <c r="B67" s="19" t="s">
+      <c r="B67" s="49" t="s">
         <v>638</v>
       </c>
       <c r="C67" s="19" t="s">
@@ -6139,10 +6261,10 @@
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" s="39" t="s">
+      <c r="A68" s="35" t="s">
         <v>575</v>
       </c>
-      <c r="B68" s="19" t="s">
+      <c r="B68" s="49" t="s">
         <v>643</v>
       </c>
       <c r="C68" s="19" t="s">
@@ -6180,10 +6302,10 @@
       </c>
     </row>
     <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" s="39" t="s">
+      <c r="A69" s="35" t="s">
         <v>577</v>
       </c>
-      <c r="B69" s="19" t="s">
+      <c r="B69" s="49" t="s">
         <v>648</v>
       </c>
       <c r="C69" s="19" t="s">
@@ -6221,10 +6343,10 @@
       </c>
     </row>
     <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" s="39" t="s">
+      <c r="A70" s="35" t="s">
         <v>579</v>
       </c>
-      <c r="B70" s="19" t="s">
+      <c r="B70" s="49" t="s">
         <v>650</v>
       </c>
       <c r="C70" s="19" t="s">
@@ -6262,10 +6384,10 @@
       </c>
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" s="39" t="s">
+      <c r="A71" s="35" t="s">
         <v>581</v>
       </c>
-      <c r="B71" s="19" t="s">
+      <c r="B71" s="49" t="s">
         <v>652</v>
       </c>
       <c r="C71" s="19" t="s">
@@ -6303,10 +6425,10 @@
       </c>
     </row>
     <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" s="39" t="s">
+      <c r="A72" s="35" t="s">
         <v>582</v>
       </c>
-      <c r="B72" s="19" t="s">
+      <c r="B72" s="49" t="s">
         <v>654</v>
       </c>
       <c r="C72" s="19" t="s">
@@ -6344,10 +6466,10 @@
       </c>
     </row>
     <row r="73" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A73" s="39" t="s">
+      <c r="A73" s="35" t="s">
         <v>583</v>
       </c>
-      <c r="B73" s="19" t="s">
+      <c r="B73" s="49" t="s">
         <v>656</v>
       </c>
       <c r="C73" s="19" t="s">
@@ -6385,10 +6507,10 @@
       </c>
     </row>
     <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A74" s="39" t="s">
+      <c r="A74" s="35" t="s">
         <v>585</v>
       </c>
-      <c r="B74" s="19" t="s">
+      <c r="B74" s="49" t="s">
         <v>659</v>
       </c>
       <c r="C74" s="19" t="s">
@@ -6426,10 +6548,10 @@
       </c>
     </row>
     <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A75" s="39" t="s">
+      <c r="A75" s="35" t="s">
         <v>589</v>
       </c>
-      <c r="B75" s="19" t="s">
+      <c r="B75" s="49" t="s">
         <v>664</v>
       </c>
       <c r="C75" s="19" t="s">
@@ -6467,10 +6589,10 @@
       </c>
     </row>
     <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A76" s="39" t="s">
+      <c r="A76" s="35" t="s">
         <v>595</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="49" t="s">
         <v>676</v>
       </c>
       <c r="C76" s="19" t="s">
@@ -6479,7 +6601,7 @@
       <c r="D76" s="21" t="s">
         <v>866</v>
       </c>
-      <c r="E76" s="49" t="s">
+      <c r="E76" s="43" t="s">
         <v>15</v>
       </c>
       <c r="F76" s="19" t="s">
@@ -6508,10 +6630,10 @@
       </c>
     </row>
     <row r="77" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A77" s="39">
+      <c r="A77" s="35">
         <v>230001</v>
       </c>
-      <c r="B77" s="19" t="s">
+      <c r="B77" s="49" t="s">
         <v>23</v>
       </c>
       <c r="C77" s="19" t="s">
@@ -6549,10 +6671,10 @@
       </c>
     </row>
     <row r="78" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A78" s="39">
+      <c r="A78" s="35">
         <v>230002</v>
       </c>
-      <c r="B78" s="19" t="s">
+      <c r="B78" s="49" t="s">
         <v>24</v>
       </c>
       <c r="C78" s="19" t="s">
@@ -6561,7 +6683,7 @@
       <c r="D78" s="21" t="s">
         <v>393</v>
       </c>
-      <c r="E78" s="50" t="s">
+      <c r="E78" s="44" t="s">
         <v>556</v>
       </c>
       <c r="F78" s="19" t="s">
@@ -6590,10 +6712,10 @@
       </c>
     </row>
     <row r="79" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A79" s="39">
+      <c r="A79" s="35">
         <v>230003</v>
       </c>
-      <c r="B79" s="19" t="s">
+      <c r="B79" s="49" t="s">
         <v>27</v>
       </c>
       <c r="C79" s="19" t="s">
@@ -6631,10 +6753,10 @@
       </c>
     </row>
     <row r="80" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A80" s="39">
+      <c r="A80" s="35">
         <v>230004</v>
       </c>
-      <c r="B80" s="19" t="s">
+      <c r="B80" s="49" t="s">
         <v>31</v>
       </c>
       <c r="C80" s="19" t="s">
@@ -6672,10 +6794,10 @@
       </c>
     </row>
     <row r="81" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A81" s="39">
+      <c r="A81" s="35">
         <v>230005</v>
       </c>
-      <c r="B81" s="19" t="s">
+      <c r="B81" s="49" t="s">
         <v>72</v>
       </c>
       <c r="C81" s="19" t="s">
@@ -6713,10 +6835,10 @@
       </c>
     </row>
     <row r="82" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A82" s="39">
+      <c r="A82" s="35">
         <v>230006</v>
       </c>
-      <c r="B82" s="19" t="s">
+      <c r="B82" s="49" t="s">
         <v>73</v>
       </c>
       <c r="C82" s="19" t="s">
@@ -6754,10 +6876,10 @@
       </c>
     </row>
     <row r="83" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A83" s="39" t="s">
+      <c r="A83" s="35" t="s">
         <v>201</v>
       </c>
-      <c r="B83" s="19" t="s">
+      <c r="B83" s="49" t="s">
         <v>95</v>
       </c>
       <c r="C83" s="19" t="s">
@@ -6795,10 +6917,10 @@
       </c>
     </row>
     <row r="84" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A84" s="39">
+      <c r="A84" s="35">
         <v>230007</v>
       </c>
-      <c r="B84" s="19" t="s">
+      <c r="B84" s="49" t="s">
         <v>110</v>
       </c>
       <c r="C84" s="19" t="s">
@@ -6836,10 +6958,10 @@
       </c>
     </row>
     <row r="85" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A85" s="39">
+      <c r="A85" s="35">
         <v>230008</v>
       </c>
-      <c r="B85" s="19" t="s">
+      <c r="B85" s="49" t="s">
         <v>115</v>
       </c>
       <c r="C85" s="19" t="s">
@@ -6877,10 +6999,10 @@
       </c>
     </row>
     <row r="86" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A86" s="40">
+      <c r="A86" s="36">
         <v>230009</v>
       </c>
-      <c r="B86" s="19" t="s">
+      <c r="B86" s="49" t="s">
         <v>118</v>
       </c>
       <c r="C86" s="19" t="s">
@@ -6918,10 +7040,10 @@
       </c>
     </row>
     <row r="87" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A87" s="39">
+      <c r="A87" s="35">
         <v>230010</v>
       </c>
-      <c r="B87" s="19" t="s">
+      <c r="B87" s="49" t="s">
         <v>120</v>
       </c>
       <c r="C87" s="19" t="s">
@@ -6959,10 +7081,10 @@
       </c>
     </row>
     <row r="88" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A88" s="40">
+      <c r="A88" s="36">
         <v>230011</v>
       </c>
-      <c r="B88" s="19" t="s">
+      <c r="B88" s="49" t="s">
         <v>135</v>
       </c>
       <c r="C88" s="19" t="s">
@@ -6971,7 +7093,7 @@
       <c r="D88" s="22" t="s">
         <v>504</v>
       </c>
-      <c r="E88" s="50" t="s">
+      <c r="E88" s="44" t="s">
         <v>556</v>
       </c>
       <c r="F88" s="19" t="s">
@@ -7000,10 +7122,10 @@
       </c>
     </row>
     <row r="89" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A89" s="40">
+      <c r="A89" s="36">
         <v>230012</v>
       </c>
-      <c r="B89" s="19" t="s">
+      <c r="B89" s="49" t="s">
         <v>140</v>
       </c>
       <c r="C89" s="19" t="s">
@@ -7012,7 +7134,7 @@
       <c r="D89" s="22" t="s">
         <v>509</v>
       </c>
-      <c r="E89" s="50" t="s">
+      <c r="E89" s="44" t="s">
         <v>556</v>
       </c>
       <c r="F89" s="19" t="s">
@@ -7041,10 +7163,10 @@
       </c>
     </row>
     <row r="90" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A90" s="40">
+      <c r="A90" s="36">
         <v>230013</v>
       </c>
-      <c r="B90" s="19" t="s">
+      <c r="B90" s="49" t="s">
         <v>146</v>
       </c>
       <c r="C90" s="19" t="s">
@@ -7082,10 +7204,10 @@
       </c>
     </row>
     <row r="91" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A91" s="42">
+      <c r="A91" s="38">
         <v>230017</v>
       </c>
-      <c r="B91" s="19" t="s">
+      <c r="B91" s="49" t="s">
         <v>632</v>
       </c>
       <c r="C91" s="19" t="s">
@@ -7123,10 +7245,10 @@
       </c>
     </row>
     <row r="92" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A92" s="39">
+      <c r="A92" s="35">
         <v>230014</v>
       </c>
-      <c r="B92" s="19" t="s">
+      <c r="B92" s="49" t="s">
         <v>637</v>
       </c>
       <c r="C92" s="19" t="s">
@@ -7164,10 +7286,10 @@
       </c>
     </row>
     <row r="93" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A93" s="39">
+      <c r="A93" s="35">
         <v>230015</v>
       </c>
-      <c r="B93" s="19" t="s">
+      <c r="B93" s="49" t="s">
         <v>642</v>
       </c>
       <c r="C93" s="19" t="s">
@@ -7205,10 +7327,10 @@
       </c>
     </row>
     <row r="94" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A94" s="39">
+      <c r="A94" s="35">
         <v>230016</v>
       </c>
-      <c r="B94" s="19" t="s">
+      <c r="B94" s="49" t="s">
         <v>644</v>
       </c>
       <c r="C94" s="19" t="s">
@@ -7246,10 +7368,10 @@
       </c>
     </row>
     <row r="95" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A95" s="39">
+      <c r="A95" s="35">
         <v>230018</v>
       </c>
-      <c r="B95" s="19" t="s">
+      <c r="B95" s="49" t="s">
         <v>646</v>
       </c>
       <c r="C95" s="19" t="s">
@@ -7287,10 +7409,10 @@
       </c>
     </row>
     <row r="96" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A96" s="39">
+      <c r="A96" s="35">
         <v>230019</v>
       </c>
-      <c r="B96" s="19" t="s">
+      <c r="B96" s="49" t="s">
         <v>669</v>
       </c>
       <c r="C96" s="19" t="s">
@@ -7328,10 +7450,10 @@
       </c>
     </row>
     <row r="97" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A97" s="39">
+      <c r="A97" s="35">
         <v>230020</v>
       </c>
-      <c r="B97" s="19" t="s">
+      <c r="B97" s="49" t="s">
         <v>671</v>
       </c>
       <c r="C97" s="19" t="s">
@@ -7369,10 +7491,10 @@
       </c>
     </row>
     <row r="98" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A98" s="39">
+      <c r="A98" s="35">
         <v>230021</v>
       </c>
-      <c r="B98" s="19" t="s">
+      <c r="B98" s="49" t="s">
         <v>685</v>
       </c>
       <c r="C98" s="19" t="s">
@@ -7410,10 +7532,10 @@
       </c>
     </row>
     <row r="99" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A99" s="40">
+      <c r="A99" s="36">
         <v>230022</v>
       </c>
-      <c r="B99" s="19" t="s">
+      <c r="B99" s="49" t="s">
         <v>699</v>
       </c>
       <c r="C99" s="19" t="s">
@@ -7451,10 +7573,10 @@
       </c>
     </row>
     <row r="100" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A100" s="39">
+      <c r="A100" s="35">
         <v>210001</v>
       </c>
-      <c r="B100" s="19" t="s">
+      <c r="B100" s="49" t="s">
         <v>20</v>
       </c>
       <c r="C100" s="19" t="s">
@@ -7492,10 +7614,10 @@
       </c>
     </row>
     <row r="101" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A101" s="39">
+      <c r="A101" s="35">
         <v>210002</v>
       </c>
-      <c r="B101" s="19" t="s">
+      <c r="B101" s="49" t="s">
         <v>28</v>
       </c>
       <c r="C101" s="19" t="s">
@@ -7533,10 +7655,10 @@
       </c>
     </row>
     <row r="102" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A102" s="39">
+      <c r="A102" s="35">
         <v>210003</v>
       </c>
-      <c r="B102" s="19" t="s">
+      <c r="B102" s="49" t="s">
         <v>29</v>
       </c>
       <c r="C102" s="19" t="s">
@@ -7545,7 +7667,7 @@
       <c r="D102" s="21" t="s">
         <v>398</v>
       </c>
-      <c r="E102" s="50" t="s">
+      <c r="E102" s="44" t="s">
         <v>553</v>
       </c>
       <c r="F102" s="19" t="s">
@@ -7574,10 +7696,10 @@
       </c>
     </row>
     <row r="103" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A103" s="39">
+      <c r="A103" s="35">
         <v>210004</v>
       </c>
-      <c r="B103" s="19" t="s">
+      <c r="B103" s="49" t="s">
         <v>37</v>
       </c>
       <c r="C103" s="19" t="s">
@@ -7615,10 +7737,10 @@
       </c>
     </row>
     <row r="104" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A104" s="39">
+      <c r="A104" s="35">
         <v>210005</v>
       </c>
-      <c r="B104" s="19" t="s">
+      <c r="B104" s="49" t="s">
         <v>63</v>
       </c>
       <c r="C104" s="19" t="s">
@@ -7627,7 +7749,7 @@
       <c r="D104" s="21" t="s">
         <v>432</v>
       </c>
-      <c r="E104" s="50" t="s">
+      <c r="E104" s="44" t="s">
         <v>553</v>
       </c>
       <c r="F104" s="19" t="s">
@@ -7656,10 +7778,10 @@
       </c>
     </row>
     <row r="105" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A105" s="39">
+      <c r="A105" s="35">
         <v>210006</v>
       </c>
-      <c r="B105" s="19" t="s">
+      <c r="B105" s="49" t="s">
         <v>65</v>
       </c>
       <c r="C105" s="19" t="s">
@@ -7697,10 +7819,10 @@
       </c>
     </row>
     <row r="106" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A106" s="40">
+      <c r="A106" s="36">
         <v>210007</v>
       </c>
-      <c r="B106" s="19" t="s">
+      <c r="B106" s="49" t="s">
         <v>71</v>
       </c>
       <c r="C106" s="19" t="s">
@@ -7738,10 +7860,10 @@
       </c>
     </row>
     <row r="107" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A107" s="40">
+      <c r="A107" s="36">
         <v>210008</v>
       </c>
-      <c r="B107" s="19" t="s">
+      <c r="B107" s="49" t="s">
         <v>79</v>
       </c>
       <c r="C107" s="19" t="s">
@@ -7779,10 +7901,10 @@
       </c>
     </row>
     <row r="108" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A108" s="39">
+      <c r="A108" s="35">
         <v>210009</v>
       </c>
-      <c r="B108" s="19" t="s">
+      <c r="B108" s="49" t="s">
         <v>80</v>
       </c>
       <c r="C108" s="19" t="s">
@@ -7820,10 +7942,10 @@
       </c>
     </row>
     <row r="109" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A109" s="39">
+      <c r="A109" s="35">
         <v>210010</v>
       </c>
-      <c r="B109" s="19" t="s">
+      <c r="B109" s="49" t="s">
         <v>86</v>
       </c>
       <c r="C109" s="19" t="s">
@@ -7861,10 +7983,10 @@
       </c>
     </row>
     <row r="110" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A110" s="39">
+      <c r="A110" s="35">
         <v>210011</v>
       </c>
-      <c r="B110" s="19" t="s">
+      <c r="B110" s="49" t="s">
         <v>90</v>
       </c>
       <c r="C110" s="19" t="s">
@@ -7902,16 +8024,16 @@
       </c>
     </row>
     <row r="111" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A111" s="39">
+      <c r="A111" s="35">
         <v>210012</v>
       </c>
-      <c r="B111" s="19" t="s">
+      <c r="B111" s="49" t="s">
         <v>92</v>
       </c>
       <c r="C111" s="19" t="s">
         <v>311</v>
       </c>
-      <c r="D111" s="47" t="s">
+      <c r="D111" s="41" t="s">
         <v>461</v>
       </c>
       <c r="E111" s="18" t="s">
@@ -7943,10 +8065,10 @@
       </c>
     </row>
     <row r="112" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A112" s="40">
+      <c r="A112" s="36">
         <v>210013</v>
       </c>
-      <c r="B112" s="19" t="s">
+      <c r="B112" s="49" t="s">
         <v>136</v>
       </c>
       <c r="C112" s="19" t="s">
@@ -7984,10 +8106,10 @@
       </c>
     </row>
     <row r="113" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A113" s="40">
+      <c r="A113" s="36">
         <v>210014</v>
       </c>
-      <c r="B113" s="19" t="s">
+      <c r="B113" s="49" t="s">
         <v>137</v>
       </c>
       <c r="C113" s="19" t="s">
@@ -8025,10 +8147,10 @@
       </c>
     </row>
     <row r="114" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A114" s="40">
+      <c r="A114" s="36">
         <v>210015</v>
       </c>
-      <c r="B114" s="19" t="s">
+      <c r="B114" s="49" t="s">
         <v>152</v>
       </c>
       <c r="C114" s="19" t="s">
@@ -8066,10 +8188,10 @@
       </c>
     </row>
     <row r="115" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A115" s="40">
+      <c r="A115" s="36">
         <v>210016</v>
       </c>
-      <c r="B115" s="19" t="s">
+      <c r="B115" s="49" t="s">
         <v>155</v>
       </c>
       <c r="C115" s="19" t="s">
@@ -8078,7 +8200,7 @@
       <c r="D115" s="22" t="s">
         <v>524</v>
       </c>
-      <c r="E115" s="50" t="s">
+      <c r="E115" s="44" t="s">
         <v>553</v>
       </c>
       <c r="F115" s="19" t="s">
@@ -8107,10 +8229,10 @@
       </c>
     </row>
     <row r="116" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A116" s="40">
+      <c r="A116" s="36">
         <v>210017</v>
       </c>
-      <c r="B116" s="19" t="s">
+      <c r="B116" s="49" t="s">
         <v>168</v>
       </c>
       <c r="C116" s="19" t="s">
@@ -8119,7 +8241,7 @@
       <c r="D116" s="22" t="s">
         <v>537</v>
       </c>
-      <c r="E116" s="50" t="s">
+      <c r="E116" s="44" t="s">
         <v>553</v>
       </c>
       <c r="F116" s="19" t="s">
@@ -8148,10 +8270,10 @@
       </c>
     </row>
     <row r="117" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A117" s="40">
+      <c r="A117" s="36">
         <v>210018</v>
       </c>
-      <c r="B117" s="19" t="s">
+      <c r="B117" s="49" t="s">
         <v>611</v>
       </c>
       <c r="C117" s="19" t="s">
@@ -8189,10 +8311,10 @@
       </c>
     </row>
     <row r="118" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A118" s="39">
+      <c r="A118" s="35">
         <v>210019</v>
       </c>
-      <c r="B118" s="19" t="s">
+      <c r="B118" s="49" t="s">
         <v>612</v>
       </c>
       <c r="C118" s="19" t="s">
@@ -8230,10 +8352,10 @@
       </c>
     </row>
     <row r="119" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A119" s="39">
+      <c r="A119" s="35">
         <v>210020</v>
       </c>
-      <c r="B119" s="19" t="s">
+      <c r="B119" s="49" t="s">
         <v>622</v>
       </c>
       <c r="C119" s="19" t="s">
@@ -8271,10 +8393,10 @@
       </c>
     </row>
     <row r="120" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A120" s="39">
+      <c r="A120" s="35">
         <v>210021</v>
       </c>
-      <c r="B120" s="19" t="s">
+      <c r="B120" s="49" t="s">
         <v>630</v>
       </c>
       <c r="C120" s="19" t="s">
@@ -8312,10 +8434,10 @@
       </c>
     </row>
     <row r="121" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A121" s="40">
+      <c r="A121" s="36">
         <v>210022</v>
       </c>
-      <c r="B121" s="19" t="s">
+      <c r="B121" s="49" t="s">
         <v>640</v>
       </c>
       <c r="C121" s="19" t="s">
@@ -8353,10 +8475,10 @@
       </c>
     </row>
     <row r="122" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A122" s="39">
+      <c r="A122" s="35">
         <v>210023</v>
       </c>
-      <c r="B122" s="19" t="s">
+      <c r="B122" s="49" t="s">
         <v>641</v>
       </c>
       <c r="C122" s="19" t="s">
@@ -8394,10 +8516,10 @@
       </c>
     </row>
     <row r="123" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A123" s="39">
+      <c r="A123" s="35">
         <v>210024</v>
       </c>
-      <c r="B123" s="19" t="s">
+      <c r="B123" s="49" t="s">
         <v>658</v>
       </c>
       <c r="C123" s="19" t="s">
@@ -8435,10 +8557,10 @@
       </c>
     </row>
     <row r="124" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A124" s="39">
+      <c r="A124" s="35">
         <v>210025</v>
       </c>
-      <c r="B124" s="19" t="s">
+      <c r="B124" s="49" t="s">
         <v>665</v>
       </c>
       <c r="C124" s="19" t="s">
@@ -8476,10 +8598,10 @@
       </c>
     </row>
     <row r="125" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A125" s="40">
+      <c r="A125" s="36">
         <v>210026</v>
       </c>
-      <c r="B125" s="19" t="s">
+      <c r="B125" s="49" t="s">
         <v>681</v>
       </c>
       <c r="C125" s="19" t="s">
@@ -8517,10 +8639,10 @@
       </c>
     </row>
     <row r="126" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A126" s="39">
+      <c r="A126" s="35">
         <v>210027</v>
       </c>
-      <c r="B126" s="19" t="s">
+      <c r="B126" s="49" t="s">
         <v>684</v>
       </c>
       <c r="C126" s="19" t="s">
@@ -8558,10 +8680,10 @@
       </c>
     </row>
     <row r="127" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A127" s="40">
+      <c r="A127" s="36">
         <v>210028</v>
       </c>
-      <c r="B127" s="19" t="s">
+      <c r="B127" s="49" t="s">
         <v>686</v>
       </c>
       <c r="C127" s="19" t="s">
@@ -8599,10 +8721,10 @@
       </c>
     </row>
     <row r="128" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A128" s="39">
+      <c r="A128" s="35">
         <v>210029</v>
       </c>
-      <c r="B128" s="19" t="s">
+      <c r="B128" s="49" t="s">
         <v>690</v>
       </c>
       <c r="C128" s="19" t="s">
@@ -8640,10 +8762,10 @@
       </c>
     </row>
     <row r="129" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A129" s="39">
+      <c r="A129" s="35">
         <v>160001</v>
       </c>
-      <c r="B129" s="19" t="s">
+      <c r="B129" s="49" t="s">
         <v>22</v>
       </c>
       <c r="C129" s="19" t="s">
@@ -8681,10 +8803,10 @@
       </c>
     </row>
     <row r="130" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A130" s="39">
+      <c r="A130" s="35">
         <v>160002</v>
       </c>
-      <c r="B130" s="19" t="s">
+      <c r="B130" s="49" t="s">
         <v>34</v>
       </c>
       <c r="C130" s="19" t="s">
@@ -8722,10 +8844,10 @@
       </c>
     </row>
     <row r="131" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A131" s="40">
+      <c r="A131" s="36">
         <v>160003</v>
       </c>
-      <c r="B131" s="19" t="s">
+      <c r="B131" s="49" t="s">
         <v>35</v>
       </c>
       <c r="C131" s="19" t="s">
@@ -8763,10 +8885,10 @@
       </c>
     </row>
     <row r="132" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A132" s="39">
+      <c r="A132" s="35">
         <v>160004</v>
       </c>
-      <c r="B132" s="19" t="s">
+      <c r="B132" s="49" t="s">
         <v>36</v>
       </c>
       <c r="C132" s="19" t="s">
@@ -8804,10 +8926,10 @@
       </c>
     </row>
     <row r="133" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A133" s="40">
+      <c r="A133" s="36">
         <v>160005</v>
       </c>
-      <c r="B133" s="19" t="s">
+      <c r="B133" s="49" t="s">
         <v>41</v>
       </c>
       <c r="C133" s="19" t="s">
@@ -8845,10 +8967,10 @@
       </c>
     </row>
     <row r="134" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A134" s="39">
+      <c r="A134" s="35">
         <v>160006</v>
       </c>
-      <c r="B134" s="19" t="s">
+      <c r="B134" s="49" t="s">
         <v>43</v>
       </c>
       <c r="C134" s="19" t="s">
@@ -8886,10 +9008,10 @@
       </c>
     </row>
     <row r="135" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A135" s="39">
+      <c r="A135" s="35">
         <v>160007</v>
       </c>
-      <c r="B135" s="19" t="s">
+      <c r="B135" s="49" t="s">
         <v>44</v>
       </c>
       <c r="C135" s="19" t="s">
@@ -8898,7 +9020,7 @@
       <c r="D135" s="21" t="s">
         <v>413</v>
       </c>
-      <c r="E135" s="50" t="s">
+      <c r="E135" s="44" t="s">
         <v>555</v>
       </c>
       <c r="F135" s="19" t="s">
@@ -8927,10 +9049,10 @@
       </c>
     </row>
     <row r="136" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A136" s="39">
+      <c r="A136" s="35">
         <v>160008</v>
       </c>
-      <c r="B136" s="19" t="s">
+      <c r="B136" s="49" t="s">
         <v>52</v>
       </c>
       <c r="C136" s="19" t="s">
@@ -8939,7 +9061,7 @@
       <c r="D136" s="21" t="s">
         <v>421</v>
       </c>
-      <c r="E136" s="50" t="s">
+      <c r="E136" s="44" t="s">
         <v>555</v>
       </c>
       <c r="F136" s="19" t="s">
@@ -8968,10 +9090,10 @@
       </c>
     </row>
     <row r="137" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A137" s="39">
+      <c r="A137" s="35">
         <v>170001</v>
       </c>
-      <c r="B137" s="19" t="s">
+      <c r="B137" s="49" t="s">
         <v>55</v>
       </c>
       <c r="C137" s="19"/>
@@ -9007,10 +9129,10 @@
       </c>
     </row>
     <row r="138" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A138" s="39">
+      <c r="A138" s="35">
         <v>160009</v>
       </c>
-      <c r="B138" s="19" t="s">
+      <c r="B138" s="49" t="s">
         <v>56</v>
       </c>
       <c r="C138" s="19" t="s">
@@ -9048,10 +9170,10 @@
       </c>
     </row>
     <row r="139" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A139" s="39">
+      <c r="A139" s="35">
         <v>160010</v>
       </c>
-      <c r="B139" s="19" t="s">
+      <c r="B139" s="49" t="s">
         <v>69</v>
       </c>
       <c r="C139" s="19" t="s">
@@ -9089,10 +9211,10 @@
       </c>
     </row>
     <row r="140" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A140" s="39">
+      <c r="A140" s="35">
         <v>170002</v>
       </c>
-      <c r="B140" s="19" t="s">
+      <c r="B140" s="49" t="s">
         <v>74</v>
       </c>
       <c r="C140" s="19" t="s">
@@ -9130,10 +9252,10 @@
       </c>
     </row>
     <row r="141" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A141" s="39">
+      <c r="A141" s="35">
         <v>160011</v>
       </c>
-      <c r="B141" s="19" t="s">
+      <c r="B141" s="49" t="s">
         <v>81</v>
       </c>
       <c r="C141" s="19" t="s">
@@ -9171,10 +9293,10 @@
       </c>
     </row>
     <row r="142" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A142" s="39">
+      <c r="A142" s="35">
         <v>160012</v>
       </c>
-      <c r="B142" s="19" t="s">
+      <c r="B142" s="49" t="s">
         <v>85</v>
       </c>
       <c r="C142" s="19" t="s">
@@ -9212,10 +9334,10 @@
       </c>
     </row>
     <row r="143" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A143" s="39">
+      <c r="A143" s="35">
         <v>170003</v>
       </c>
-      <c r="B143" s="19" t="s">
+      <c r="B143" s="49" t="s">
         <v>87</v>
       </c>
       <c r="C143" s="19" t="s">
@@ -9253,10 +9375,10 @@
       </c>
     </row>
     <row r="144" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A144" s="39">
+      <c r="A144" s="35">
         <v>170004</v>
       </c>
-      <c r="B144" s="19" t="s">
+      <c r="B144" s="49" t="s">
         <v>88</v>
       </c>
       <c r="C144" s="19" t="s">
@@ -9294,10 +9416,10 @@
       </c>
     </row>
     <row r="145" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A145" s="39">
+      <c r="A145" s="35">
         <v>160013</v>
       </c>
-      <c r="B145" s="19" t="s">
+      <c r="B145" s="49" t="s">
         <v>97</v>
       </c>
       <c r="C145" s="19" t="s">
@@ -9335,10 +9457,10 @@
       </c>
     </row>
     <row r="146" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A146" s="40">
+      <c r="A146" s="36">
         <v>170005</v>
       </c>
-      <c r="B146" s="19" t="s">
+      <c r="B146" s="49" t="s">
         <v>107</v>
       </c>
       <c r="C146" s="19" t="s">
@@ -9376,10 +9498,10 @@
       </c>
     </row>
     <row r="147" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A147" s="40">
+      <c r="A147" s="36">
         <v>170006</v>
       </c>
-      <c r="B147" s="19" t="s">
+      <c r="B147" s="49" t="s">
         <v>124</v>
       </c>
       <c r="C147" s="19" t="s">
@@ -9417,10 +9539,10 @@
       </c>
     </row>
     <row r="148" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A148" s="39">
+      <c r="A148" s="35">
         <v>160014</v>
       </c>
-      <c r="B148" s="19" t="s">
+      <c r="B148" s="49" t="s">
         <v>126</v>
       </c>
       <c r="C148" s="19" t="s">
@@ -9458,10 +9580,10 @@
       </c>
     </row>
     <row r="149" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A149" s="39">
+      <c r="A149" s="35">
         <v>160015</v>
       </c>
-      <c r="B149" s="19" t="s">
+      <c r="B149" s="49" t="s">
         <v>128</v>
       </c>
       <c r="C149" s="19" t="s">
@@ -9499,10 +9621,10 @@
       </c>
     </row>
     <row r="150" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A150" s="40">
+      <c r="A150" s="36">
         <v>170007</v>
       </c>
-      <c r="B150" s="19" t="s">
+      <c r="B150" s="49" t="s">
         <v>141</v>
       </c>
       <c r="C150" s="19" t="s">
@@ -9540,10 +9662,10 @@
       </c>
     </row>
     <row r="151" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A151" s="40">
+      <c r="A151" s="36">
         <v>160016</v>
       </c>
-      <c r="B151" s="19" t="s">
+      <c r="B151" s="49" t="s">
         <v>147</v>
       </c>
       <c r="C151" s="19" t="s">
@@ -9581,10 +9703,10 @@
       </c>
     </row>
     <row r="152" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A152" s="40">
+      <c r="A152" s="36">
         <v>160017</v>
       </c>
-      <c r="B152" s="19" t="s">
+      <c r="B152" s="49" t="s">
         <v>166</v>
       </c>
       <c r="C152" s="19" t="s">
@@ -9622,10 +9744,10 @@
       </c>
     </row>
     <row r="153" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A153" s="39">
+      <c r="A153" s="35">
         <v>160019</v>
       </c>
-      <c r="B153" s="19" t="s">
+      <c r="B153" s="49" t="s">
         <v>633</v>
       </c>
       <c r="C153" s="19" t="s">
@@ -9663,10 +9785,10 @@
       </c>
     </row>
     <row r="154" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A154" s="39">
+      <c r="A154" s="35">
         <v>160018</v>
       </c>
-      <c r="B154" s="19" t="s">
+      <c r="B154" s="49" t="s">
         <v>634</v>
       </c>
       <c r="C154" s="19" t="s">
@@ -9704,10 +9826,10 @@
       </c>
     </row>
     <row r="155" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A155" s="39">
+      <c r="A155" s="35">
         <v>170009</v>
       </c>
-      <c r="B155" s="19" t="s">
+      <c r="B155" s="49" t="s">
         <v>636</v>
       </c>
       <c r="C155" s="19" t="s">
@@ -9745,10 +9867,10 @@
       </c>
     </row>
     <row r="156" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A156" s="40">
+      <c r="A156" s="36">
         <v>170010</v>
       </c>
-      <c r="B156" s="19" t="s">
+      <c r="B156" s="49" t="s">
         <v>639</v>
       </c>
       <c r="C156" s="19" t="s">
@@ -9786,10 +9908,10 @@
       </c>
     </row>
     <row r="157" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A157" s="39">
+      <c r="A157" s="35">
         <v>160020</v>
       </c>
-      <c r="B157" s="19" t="s">
+      <c r="B157" s="49" t="s">
         <v>645</v>
       </c>
       <c r="C157" s="19" t="s">
@@ -9827,10 +9949,10 @@
       </c>
     </row>
     <row r="158" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A158" s="39">
+      <c r="A158" s="35">
         <v>160021</v>
       </c>
-      <c r="B158" s="19" t="s">
+      <c r="B158" s="49" t="s">
         <v>655</v>
       </c>
       <c r="C158" s="19" t="s">
@@ -9868,10 +9990,10 @@
       </c>
     </row>
     <row r="159" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A159" s="39">
+      <c r="A159" s="35">
         <v>160022</v>
       </c>
-      <c r="B159" s="19" t="s">
+      <c r="B159" s="49" t="s">
         <v>672</v>
       </c>
       <c r="C159" s="19" t="s">
@@ -9909,10 +10031,10 @@
       </c>
     </row>
     <row r="160" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A160" s="39">
+      <c r="A160" s="35">
         <v>160023</v>
       </c>
-      <c r="B160" s="19" t="s">
+      <c r="B160" s="49" t="s">
         <v>679</v>
       </c>
       <c r="C160" s="19" t="s">
@@ -9950,10 +10072,10 @@
       </c>
     </row>
     <row r="161" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A161" s="39">
+      <c r="A161" s="35">
         <v>160024</v>
       </c>
-      <c r="B161" s="19" t="s">
+      <c r="B161" s="49" t="s">
         <v>682</v>
       </c>
       <c r="C161" s="19" t="s">
@@ -9991,10 +10113,10 @@
       </c>
     </row>
     <row r="162" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A162" s="39">
+      <c r="A162" s="35">
         <v>160025</v>
       </c>
-      <c r="B162" s="19" t="s">
+      <c r="B162" s="49" t="s">
         <v>689</v>
       </c>
       <c r="C162" s="19" t="s">
@@ -10032,10 +10154,10 @@
       </c>
     </row>
     <row r="163" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A163" s="39">
+      <c r="A163" s="35">
         <v>160026</v>
       </c>
-      <c r="B163" s="19" t="s">
+      <c r="B163" s="49" t="s">
         <v>697</v>
       </c>
       <c r="C163" s="19" t="s">
@@ -10073,10 +10195,10 @@
       </c>
     </row>
     <row r="164" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A164" s="39">
+      <c r="A164" s="35">
         <v>170011</v>
       </c>
-      <c r="B164" s="19" t="s">
+      <c r="B164" s="49" t="s">
         <v>698</v>
       </c>
       <c r="C164" s="19" t="s">
@@ -10114,10 +10236,10 @@
       </c>
     </row>
     <row r="165" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A165" s="39" t="s">
+      <c r="A165" s="35" t="s">
         <v>170</v>
       </c>
-      <c r="B165" s="19" t="s">
+      <c r="B165" s="49" t="s">
         <v>25</v>
       </c>
       <c r="C165" s="19" t="s">
@@ -10155,10 +10277,10 @@
       </c>
     </row>
     <row r="166" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A166" s="39" t="s">
+      <c r="A166" s="35" t="s">
         <v>172</v>
       </c>
-      <c r="B166" s="19" t="s">
+      <c r="B166" s="49" t="s">
         <v>33</v>
       </c>
       <c r="C166" s="19" t="s">
@@ -10196,10 +10318,10 @@
       </c>
     </row>
     <row r="167" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A167" s="39" t="s">
+      <c r="A167" s="35" t="s">
         <v>173</v>
       </c>
-      <c r="B167" s="19" t="s">
+      <c r="B167" s="49" t="s">
         <v>39</v>
       </c>
       <c r="C167" s="19" t="s">
@@ -10208,7 +10330,7 @@
       <c r="D167" s="21" t="s">
         <v>408</v>
       </c>
-      <c r="E167" s="50" t="s">
+      <c r="E167" s="44" t="s">
         <v>557</v>
       </c>
       <c r="F167" s="19" t="s">
@@ -10237,10 +10359,10 @@
       </c>
     </row>
     <row r="168" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A168" s="39" t="s">
+      <c r="A168" s="35" t="s">
         <v>174</v>
       </c>
-      <c r="B168" s="19" t="s">
+      <c r="B168" s="49" t="s">
         <v>40</v>
       </c>
       <c r="C168" s="19" t="s">
@@ -10278,10 +10400,10 @@
       </c>
     </row>
     <row r="169" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A169" s="39" t="s">
+      <c r="A169" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="B169" s="19" t="s">
+      <c r="B169" s="49" t="s">
         <v>47</v>
       </c>
       <c r="C169" s="19" t="s">
@@ -10290,7 +10412,7 @@
       <c r="D169" s="21" t="s">
         <v>416</v>
       </c>
-      <c r="E169" s="50" t="s">
+      <c r="E169" s="44" t="s">
         <v>557</v>
       </c>
       <c r="F169" s="19" t="s">
@@ -10319,10 +10441,10 @@
       </c>
     </row>
     <row r="170" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A170" s="39" t="s">
+      <c r="A170" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="B170" s="19" t="s">
+      <c r="B170" s="49" t="s">
         <v>59</v>
       </c>
       <c r="C170" s="19" t="s">
@@ -10360,10 +10482,10 @@
       </c>
     </row>
     <row r="171" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A171" s="39" t="s">
+      <c r="A171" s="35" t="s">
         <v>182</v>
       </c>
-      <c r="B171" s="19" t="s">
+      <c r="B171" s="49" t="s">
         <v>60</v>
       </c>
       <c r="C171" s="19" t="s">
@@ -10401,10 +10523,10 @@
       </c>
     </row>
     <row r="172" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A172" s="39" t="s">
+      <c r="A172" s="35" t="s">
         <v>183</v>
       </c>
-      <c r="B172" s="19" t="s">
+      <c r="B172" s="49" t="s">
         <v>61</v>
       </c>
       <c r="C172" s="19" t="s">
@@ -10442,10 +10564,10 @@
       </c>
     </row>
     <row r="173" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A173" s="39" t="s">
+      <c r="A173" s="35" t="s">
         <v>184</v>
       </c>
-      <c r="B173" s="19" t="s">
+      <c r="B173" s="49" t="s">
         <v>62</v>
       </c>
       <c r="C173" s="19" t="s">
@@ -10483,10 +10605,10 @@
       </c>
     </row>
     <row r="174" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A174" s="41" t="s">
+      <c r="A174" s="37" t="s">
         <v>187</v>
       </c>
-      <c r="B174" s="19" t="s">
+      <c r="B174" s="49" t="s">
         <v>67</v>
       </c>
       <c r="C174" s="19" t="s">
@@ -10524,10 +10646,10 @@
       </c>
     </row>
     <row r="175" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A175" s="41" t="s">
+      <c r="A175" s="37" t="s">
         <v>188</v>
       </c>
-      <c r="B175" s="19" t="s">
+      <c r="B175" s="49" t="s">
         <v>68</v>
       </c>
       <c r="C175" s="19" t="s">
@@ -10536,7 +10658,7 @@
       <c r="D175" s="21" t="s">
         <v>437</v>
       </c>
-      <c r="E175" s="50" t="s">
+      <c r="E175" s="44" t="s">
         <v>557</v>
       </c>
       <c r="F175" s="19" t="s">
@@ -10565,10 +10687,10 @@
       </c>
     </row>
     <row r="176" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A176" s="39" t="s">
+      <c r="A176" s="35" t="s">
         <v>193</v>
       </c>
-      <c r="B176" s="19" t="s">
+      <c r="B176" s="49" t="s">
         <v>78</v>
       </c>
       <c r="C176" s="19" t="s">
@@ -10606,10 +10728,10 @@
       </c>
     </row>
     <row r="177" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A177" s="39" t="s">
+      <c r="A177" s="35" t="s">
         <v>195</v>
       </c>
-      <c r="B177" s="19" t="s">
+      <c r="B177" s="49" t="s">
         <v>83</v>
       </c>
       <c r="C177" s="19" t="s">
@@ -10647,10 +10769,10 @@
       </c>
     </row>
     <row r="178" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A178" s="39" t="s">
+      <c r="A178" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="B178" s="19" t="s">
+      <c r="B178" s="49" t="s">
         <v>84</v>
       </c>
       <c r="C178" s="19" t="s">
@@ -10659,7 +10781,7 @@
       <c r="D178" s="21" t="s">
         <v>453</v>
       </c>
-      <c r="E178" s="50" t="s">
+      <c r="E178" s="44" t="s">
         <v>557</v>
       </c>
       <c r="F178" s="19" t="s">
@@ -10688,10 +10810,10 @@
       </c>
     </row>
     <row r="179" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A179" s="39" t="s">
+      <c r="A179" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="B179" s="19" t="s">
+      <c r="B179" s="49" t="s">
         <v>89</v>
       </c>
       <c r="C179" s="19" t="s">
@@ -10729,10 +10851,10 @@
       </c>
     </row>
     <row r="180" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A180" s="39" t="s">
+      <c r="A180" s="35" t="s">
         <v>200</v>
       </c>
-      <c r="B180" s="19" t="s">
+      <c r="B180" s="49" t="s">
         <v>94</v>
       </c>
       <c r="C180" s="19" t="s">
@@ -10770,10 +10892,10 @@
       </c>
     </row>
     <row r="181" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A181" s="39" t="s">
+      <c r="A181" s="35" t="s">
         <v>203</v>
       </c>
-      <c r="B181" s="19" t="s">
+      <c r="B181" s="49" t="s">
         <v>98</v>
       </c>
       <c r="C181" s="19" t="s">
@@ -10782,7 +10904,7 @@
       <c r="D181" s="21" t="s">
         <v>467</v>
       </c>
-      <c r="E181" s="50" t="s">
+      <c r="E181" s="44" t="s">
         <v>557</v>
       </c>
       <c r="F181" s="19" t="s">
@@ -10811,10 +10933,10 @@
       </c>
     </row>
     <row r="182" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A182" s="39" t="s">
+      <c r="A182" s="35" t="s">
         <v>209</v>
       </c>
-      <c r="B182" s="19" t="s">
+      <c r="B182" s="49" t="s">
         <v>109</v>
       </c>
       <c r="C182" s="19" t="s">
@@ -10852,10 +10974,10 @@
       </c>
     </row>
     <row r="183" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A183" s="39" t="s">
+      <c r="A183" s="35" t="s">
         <v>210</v>
       </c>
-      <c r="B183" s="19" t="s">
+      <c r="B183" s="49" t="s">
         <v>111</v>
       </c>
       <c r="C183" s="19" t="s">
@@ -10893,10 +11015,10 @@
       </c>
     </row>
     <row r="184" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A184" s="39" t="s">
+      <c r="A184" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="B184" s="19" t="s">
+      <c r="B184" s="49" t="s">
         <v>114</v>
       </c>
       <c r="C184" s="19" t="s">
@@ -10934,10 +11056,10 @@
       </c>
     </row>
     <row r="185" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A185" s="39" t="s">
+      <c r="A185" s="35" t="s">
         <v>214</v>
       </c>
-      <c r="B185" s="19" t="s">
+      <c r="B185" s="49" t="s">
         <v>116</v>
       </c>
       <c r="C185" s="19" t="s">
@@ -10975,10 +11097,10 @@
       </c>
     </row>
     <row r="186" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A186" s="39" t="s">
+      <c r="A186" s="35" t="s">
         <v>217</v>
       </c>
-      <c r="B186" s="19" t="s">
+      <c r="B186" s="49" t="s">
         <v>122</v>
       </c>
       <c r="C186" s="19" t="s">
@@ -11016,10 +11138,10 @@
       </c>
     </row>
     <row r="187" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A187" s="39" t="s">
+      <c r="A187" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B187" s="19" t="s">
+      <c r="B187" s="49" t="s">
         <v>125</v>
       </c>
       <c r="C187" s="19" t="s">
@@ -11057,10 +11179,10 @@
       </c>
     </row>
     <row r="188" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A188" s="39" t="s">
+      <c r="A188" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B188" s="19" t="s">
+      <c r="B188" s="49" t="s">
         <v>129</v>
       </c>
       <c r="C188" s="19" t="s">
@@ -11098,10 +11220,10 @@
       </c>
     </row>
     <row r="189" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A189" s="39" t="s">
+      <c r="A189" s="35" t="s">
         <v>223</v>
       </c>
-      <c r="B189" s="19" t="s">
+      <c r="B189" s="49" t="s">
         <v>138</v>
       </c>
       <c r="C189" s="19" t="s">
@@ -11139,10 +11261,10 @@
       </c>
     </row>
     <row r="190" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A190" s="39" t="s">
+      <c r="A190" s="35" t="s">
         <v>226</v>
       </c>
-      <c r="B190" s="19" t="s">
+      <c r="B190" s="49" t="s">
         <v>145</v>
       </c>
       <c r="C190" s="19" t="s">
@@ -11180,10 +11302,10 @@
       </c>
     </row>
     <row r="191" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A191" s="39" t="s">
+      <c r="A191" s="35" t="s">
         <v>229</v>
       </c>
-      <c r="B191" s="19" t="s">
+      <c r="B191" s="49" t="s">
         <v>153</v>
       </c>
       <c r="C191" s="19" t="s">
@@ -11221,10 +11343,10 @@
       </c>
     </row>
     <row r="192" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A192" s="39" t="s">
+      <c r="A192" s="35" t="s">
         <v>230</v>
       </c>
-      <c r="B192" s="19" t="s">
+      <c r="B192" s="49" t="s">
         <v>156</v>
       </c>
       <c r="C192" s="19" t="s">
@@ -11262,10 +11384,10 @@
       </c>
     </row>
     <row r="193" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A193" s="39" t="s">
+      <c r="A193" s="35" t="s">
         <v>231</v>
       </c>
-      <c r="B193" s="19" t="s">
+      <c r="B193" s="49" t="s">
         <v>157</v>
       </c>
       <c r="C193" s="19" t="s">
@@ -11303,10 +11425,10 @@
       </c>
     </row>
     <row r="194" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A194" s="39" t="s">
+      <c r="A194" s="35" t="s">
         <v>233</v>
       </c>
-      <c r="B194" s="19" t="s">
+      <c r="B194" s="49" t="s">
         <v>159</v>
       </c>
       <c r="C194" s="19" t="s">
@@ -11344,10 +11466,10 @@
       </c>
     </row>
     <row r="195" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A195" s="39" t="s">
+      <c r="A195" s="35" t="s">
         <v>234</v>
       </c>
-      <c r="B195" s="19" t="s">
+      <c r="B195" s="49" t="s">
         <v>160</v>
       </c>
       <c r="C195" s="19" t="s">
@@ -11385,10 +11507,10 @@
       </c>
     </row>
     <row r="196" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A196" s="39" t="s">
+      <c r="A196" s="35" t="s">
         <v>235</v>
       </c>
-      <c r="B196" s="19" t="s">
+      <c r="B196" s="49" t="s">
         <v>161</v>
       </c>
       <c r="C196" s="19" t="s">
@@ -11426,10 +11548,10 @@
       </c>
     </row>
     <row r="197" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A197" s="39" t="s">
+      <c r="A197" s="35" t="s">
         <v>236</v>
       </c>
-      <c r="B197" s="19" t="s">
+      <c r="B197" s="49" t="s">
         <v>162</v>
       </c>
       <c r="C197" s="19" t="s">
@@ -11467,10 +11589,10 @@
       </c>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A198" s="39" t="s">
+      <c r="A198" s="35" t="s">
         <v>237</v>
       </c>
-      <c r="B198" s="19" t="s">
+      <c r="B198" s="49" t="s">
         <v>163</v>
       </c>
       <c r="C198" s="19" t="s">
@@ -11508,10 +11630,10 @@
       </c>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A199" s="39" t="s">
+      <c r="A199" s="35" t="s">
         <v>238</v>
       </c>
-      <c r="B199" s="19" t="s">
+      <c r="B199" s="49" t="s">
         <v>164</v>
       </c>
       <c r="C199" s="19" t="s">
@@ -11549,10 +11671,10 @@
       </c>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A200" s="39" t="s">
+      <c r="A200" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="B200" s="19" t="s">
+      <c r="B200" s="49" t="s">
         <v>165</v>
       </c>
       <c r="C200" s="19" t="s">
@@ -11590,10 +11712,10 @@
       </c>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A201" s="39" t="s">
+      <c r="A201" s="35" t="s">
         <v>559</v>
       </c>
-      <c r="B201" s="19" t="s">
+      <c r="B201" s="49" t="s">
         <v>613</v>
       </c>
       <c r="C201" s="19" t="s">
@@ -11602,7 +11724,7 @@
       <c r="D201" s="21" t="s">
         <v>803</v>
       </c>
-      <c r="E201" s="50" t="s">
+      <c r="E201" s="44" t="s">
         <v>557</v>
       </c>
       <c r="F201" s="19" t="s">
@@ -11631,10 +11753,10 @@
       </c>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A202" s="39" t="s">
+      <c r="A202" s="35" t="s">
         <v>568</v>
       </c>
-      <c r="B202" s="19" t="s">
+      <c r="B202" s="49" t="s">
         <v>626</v>
       </c>
       <c r="C202" s="19" t="s">
@@ -11672,10 +11794,10 @@
       </c>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A203" s="39" t="s">
+      <c r="A203" s="35" t="s">
         <v>571</v>
       </c>
-      <c r="B203" s="19" t="s">
+      <c r="B203" s="49" t="s">
         <v>629</v>
       </c>
       <c r="C203" s="19" t="s">
@@ -11713,10 +11835,10 @@
       </c>
     </row>
     <row r="204" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A204" s="41" t="s">
+      <c r="A204" s="37" t="s">
         <v>573</v>
       </c>
-      <c r="B204" s="20" t="s">
+      <c r="B204" s="50" t="s">
         <v>635</v>
       </c>
       <c r="C204" s="19" t="s">
@@ -11754,10 +11876,10 @@
       </c>
     </row>
     <row r="205" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A205" s="39" t="s">
+      <c r="A205" s="35" t="s">
         <v>576</v>
       </c>
-      <c r="B205" s="19" t="s">
+      <c r="B205" s="49" t="s">
         <v>647</v>
       </c>
       <c r="C205" s="19" t="s">
@@ -11795,10 +11917,10 @@
       </c>
     </row>
     <row r="206" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A206" s="39" t="s">
+      <c r="A206" s="35" t="s">
         <v>578</v>
       </c>
-      <c r="B206" s="19" t="s">
+      <c r="B206" s="49" t="s">
         <v>649</v>
       </c>
       <c r="C206" s="19" t="s">
@@ -11836,10 +11958,10 @@
       </c>
     </row>
     <row r="207" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A207" s="39" t="s">
+      <c r="A207" s="35" t="s">
         <v>584</v>
       </c>
-      <c r="B207" s="19" t="s">
+      <c r="B207" s="49" t="s">
         <v>657</v>
       </c>
       <c r="C207" s="19" t="s">
@@ -11877,10 +11999,10 @@
       </c>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A208" s="39" t="s">
+      <c r="A208" s="35" t="s">
         <v>587</v>
       </c>
-      <c r="B208" s="19" t="s">
+      <c r="B208" s="49" t="s">
         <v>662</v>
       </c>
       <c r="C208" s="19" t="s">
@@ -11918,10 +12040,10 @@
       </c>
     </row>
     <row r="209" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A209" s="39" t="s">
+      <c r="A209" s="35" t="s">
         <v>588</v>
       </c>
-      <c r="B209" s="19" t="s">
+      <c r="B209" s="49" t="s">
         <v>663</v>
       </c>
       <c r="C209" s="19" t="s">
@@ -11959,10 +12081,10 @@
       </c>
     </row>
     <row r="210" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A210" s="39" t="s">
+      <c r="A210" s="35" t="s">
         <v>590</v>
       </c>
-      <c r="B210" s="19" t="s">
+      <c r="B210" s="49" t="s">
         <v>666</v>
       </c>
       <c r="C210" s="19" t="s">
@@ -12000,10 +12122,10 @@
       </c>
     </row>
     <row r="211" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A211" s="39" t="s">
+      <c r="A211" s="35" t="s">
         <v>591</v>
       </c>
-      <c r="B211" s="19" t="s">
+      <c r="B211" s="49" t="s">
         <v>668</v>
       </c>
       <c r="C211" s="19" t="s">
@@ -12041,10 +12163,10 @@
       </c>
     </row>
     <row r="212" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A212" s="39" t="s">
+      <c r="A212" s="35" t="s">
         <v>592</v>
       </c>
-      <c r="B212" s="19" t="s">
+      <c r="B212" s="49" t="s">
         <v>673</v>
       </c>
       <c r="C212" s="19" t="s">
@@ -12082,10 +12204,10 @@
       </c>
     </row>
     <row r="213" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A213" s="39" t="s">
+      <c r="A213" s="35" t="s">
         <v>593</v>
       </c>
-      <c r="B213" s="19" t="s">
+      <c r="B213" s="49" t="s">
         <v>674</v>
       </c>
       <c r="C213" s="19" t="s">
@@ -12123,10 +12245,10 @@
       </c>
     </row>
     <row r="214" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A214" s="39" t="s">
+      <c r="A214" s="35" t="s">
         <v>594</v>
       </c>
-      <c r="B214" s="19" t="s">
+      <c r="B214" s="49" t="s">
         <v>675</v>
       </c>
       <c r="C214" s="19" t="s">
@@ -12164,10 +12286,10 @@
       </c>
     </row>
     <row r="215" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A215" s="39" t="s">
+      <c r="A215" s="35" t="s">
         <v>599</v>
       </c>
-      <c r="B215" s="19" t="s">
+      <c r="B215" s="49" t="s">
         <v>688</v>
       </c>
       <c r="C215" s="19" t="s">
@@ -12205,10 +12327,10 @@
       </c>
     </row>
     <row r="216" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A216" s="39" t="s">
+      <c r="A216" s="35" t="s">
         <v>601</v>
       </c>
-      <c r="B216" s="19" t="s">
+      <c r="B216" s="49" t="s">
         <v>692</v>
       </c>
       <c r="C216" s="19" t="s">
@@ -12246,10 +12368,10 @@
       </c>
     </row>
     <row r="217" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A217" s="39" t="s">
+      <c r="A217" s="35" t="s">
         <v>602</v>
       </c>
-      <c r="B217" s="19" t="s">
+      <c r="B217" s="49" t="s">
         <v>693</v>
       </c>
       <c r="C217" s="19" t="s">
@@ -12287,10 +12409,10 @@
       </c>
     </row>
     <row r="218" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A218" s="39" t="s">
+      <c r="A218" s="35" t="s">
         <v>603</v>
       </c>
-      <c r="B218" s="19" t="s">
+      <c r="B218" s="49" t="s">
         <v>694</v>
       </c>
       <c r="C218" s="19" t="s">
@@ -12328,10 +12450,10 @@
       </c>
     </row>
     <row r="219" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A219" s="39" t="s">
+      <c r="A219" s="35" t="s">
         <v>604</v>
       </c>
-      <c r="B219" s="19" t="s">
+      <c r="B219" s="49" t="s">
         <v>696</v>
       </c>
       <c r="C219" s="19" t="s">
@@ -12369,10 +12491,10 @@
       </c>
     </row>
     <row r="220" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A220" s="39" t="s">
+      <c r="A220" s="35" t="s">
         <v>175</v>
       </c>
-      <c r="B220" s="19" t="s">
+      <c r="B220" s="49" t="s">
         <v>42</v>
       </c>
       <c r="C220" s="19" t="s">
@@ -12381,7 +12503,7 @@
       <c r="D220" s="21" t="s">
         <v>411</v>
       </c>
-      <c r="E220" s="48" t="s">
+      <c r="E220" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F220" s="19" t="s">
@@ -12410,10 +12532,10 @@
       </c>
     </row>
     <row r="221" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A221" s="39" t="s">
+      <c r="A221" s="35" t="s">
         <v>176</v>
       </c>
-      <c r="B221" s="19" t="s">
+      <c r="B221" s="49" t="s">
         <v>45</v>
       </c>
       <c r="C221" s="19" t="s">
@@ -12422,7 +12544,7 @@
       <c r="D221" s="21" t="s">
         <v>414</v>
       </c>
-      <c r="E221" s="48" t="s">
+      <c r="E221" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F221" s="19" t="s">
@@ -12451,10 +12573,10 @@
       </c>
     </row>
     <row r="222" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A222" s="39" t="s">
+      <c r="A222" s="35" t="s">
         <v>177</v>
       </c>
-      <c r="B222" s="19" t="s">
+      <c r="B222" s="49" t="s">
         <v>46</v>
       </c>
       <c r="C222" s="19" t="s">
@@ -12463,7 +12585,7 @@
       <c r="D222" s="21" t="s">
         <v>415</v>
       </c>
-      <c r="E222" s="48" t="s">
+      <c r="E222" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F222" s="19" t="s">
@@ -12492,10 +12614,10 @@
       </c>
     </row>
     <row r="223" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A223" s="39" t="s">
+      <c r="A223" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="B223" s="19" t="s">
+      <c r="B223" s="49" t="s">
         <v>48</v>
       </c>
       <c r="C223" s="19" t="s">
@@ -12504,7 +12626,7 @@
       <c r="D223" s="21" t="s">
         <v>417</v>
       </c>
-      <c r="E223" s="48" t="s">
+      <c r="E223" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F223" s="19" t="s">
@@ -12533,10 +12655,10 @@
       </c>
     </row>
     <row r="224" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A224" s="39" t="s">
+      <c r="A224" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="B224" s="19" t="s">
+      <c r="B224" s="49" t="s">
         <v>51</v>
       </c>
       <c r="C224" s="19" t="s">
@@ -12545,7 +12667,7 @@
       <c r="D224" s="21" t="s">
         <v>420</v>
       </c>
-      <c r="E224" s="48" t="s">
+      <c r="E224" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F224" s="19" t="s">
@@ -12574,10 +12696,10 @@
       </c>
     </row>
     <row r="225" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A225" s="39" t="s">
+      <c r="A225" s="35" t="s">
         <v>185</v>
       </c>
-      <c r="B225" s="19" t="s">
+      <c r="B225" s="49" t="s">
         <v>64</v>
       </c>
       <c r="C225" s="19" t="s">
@@ -12586,7 +12708,7 @@
       <c r="D225" s="21" t="s">
         <v>433</v>
       </c>
-      <c r="E225" s="48" t="s">
+      <c r="E225" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F225" s="19" t="s">
@@ -12615,10 +12737,10 @@
       </c>
     </row>
     <row r="226" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A226" s="39" t="s">
+      <c r="A226" s="35" t="s">
         <v>186</v>
       </c>
-      <c r="B226" s="19" t="s">
+      <c r="B226" s="49" t="s">
         <v>66</v>
       </c>
       <c r="C226" s="19" t="s">
@@ -12627,7 +12749,7 @@
       <c r="D226" s="21" t="s">
         <v>435</v>
       </c>
-      <c r="E226" s="48" t="s">
+      <c r="E226" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F226" s="19" t="s">
@@ -12656,10 +12778,10 @@
       </c>
     </row>
     <row r="227" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A227" s="39" t="s">
+      <c r="A227" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="B227" s="19" t="s">
+      <c r="B227" s="49" t="s">
         <v>75</v>
       </c>
       <c r="C227" s="19" t="s">
@@ -12697,10 +12819,10 @@
       </c>
     </row>
     <row r="228" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A228" s="39" t="s">
+      <c r="A228" s="35" t="s">
         <v>191</v>
       </c>
-      <c r="B228" s="19" t="s">
+      <c r="B228" s="49" t="s">
         <v>76</v>
       </c>
       <c r="C228" s="19" t="s">
@@ -12738,10 +12860,10 @@
       </c>
     </row>
     <row r="229" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A229" s="39" t="s">
+      <c r="A229" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="B229" s="19" t="s">
+      <c r="B229" s="49" t="s">
         <v>77</v>
       </c>
       <c r="C229" s="19" t="s">
@@ -12750,7 +12872,7 @@
       <c r="D229" s="21" t="s">
         <v>446</v>
       </c>
-      <c r="E229" s="48" t="s">
+      <c r="E229" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F229" s="19" t="s">
@@ -12779,10 +12901,10 @@
       </c>
     </row>
     <row r="230" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A230" s="39" t="s">
+      <c r="A230" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="B230" s="19" t="s">
+      <c r="B230" s="49" t="s">
         <v>91</v>
       </c>
       <c r="C230" s="19" t="s">
@@ -12791,7 +12913,7 @@
       <c r="D230" s="21" t="s">
         <v>460</v>
       </c>
-      <c r="E230" s="48" t="s">
+      <c r="E230" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F230" s="19" t="s">
@@ -12820,10 +12942,10 @@
       </c>
     </row>
     <row r="231" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A231" s="39" t="s">
+      <c r="A231" s="35" t="s">
         <v>199</v>
       </c>
-      <c r="B231" s="19" t="s">
+      <c r="B231" s="49" t="s">
         <v>93</v>
       </c>
       <c r="C231" s="19" t="s">
@@ -12832,7 +12954,7 @@
       <c r="D231" s="21" t="s">
         <v>462</v>
       </c>
-      <c r="E231" s="48" t="s">
+      <c r="E231" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F231" s="19" t="s">
@@ -12861,10 +12983,10 @@
       </c>
     </row>
     <row r="232" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A232" s="39" t="s">
+      <c r="A232" s="35" t="s">
         <v>205</v>
       </c>
-      <c r="B232" s="19" t="s">
+      <c r="B232" s="49" t="s">
         <v>103</v>
       </c>
       <c r="C232" s="19" t="s">
@@ -12873,7 +12995,7 @@
       <c r="D232" s="21" t="s">
         <v>472</v>
       </c>
-      <c r="E232" s="48" t="s">
+      <c r="E232" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F232" s="19" t="s">
@@ -12902,10 +13024,10 @@
       </c>
     </row>
     <row r="233" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A233" s="39" t="s">
+      <c r="A233" s="35" t="s">
         <v>206</v>
       </c>
-      <c r="B233" s="19" t="s">
+      <c r="B233" s="49" t="s">
         <v>104</v>
       </c>
       <c r="C233" s="19" t="s">
@@ -12914,7 +13036,7 @@
       <c r="D233" s="21" t="s">
         <v>473</v>
       </c>
-      <c r="E233" s="48" t="s">
+      <c r="E233" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F233" s="33" t="s">
@@ -12943,10 +13065,10 @@
       </c>
     </row>
     <row r="234" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A234" s="39" t="s">
+      <c r="A234" s="35" t="s">
         <v>215</v>
       </c>
-      <c r="B234" s="19" t="s">
+      <c r="B234" s="49" t="s">
         <v>117</v>
       </c>
       <c r="C234" s="19" t="s">
@@ -12955,7 +13077,7 @@
       <c r="D234" s="22" t="s">
         <v>486</v>
       </c>
-      <c r="E234" s="48" t="s">
+      <c r="E234" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F234" s="19" t="s">
@@ -12984,10 +13106,10 @@
       </c>
     </row>
     <row r="235" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A235" s="39" t="s">
+      <c r="A235" s="35" t="s">
         <v>216</v>
       </c>
-      <c r="B235" s="19" t="s">
+      <c r="B235" s="49" t="s">
         <v>119</v>
       </c>
       <c r="C235" s="19" t="s">
@@ -12996,7 +13118,7 @@
       <c r="D235" s="22" t="s">
         <v>488</v>
       </c>
-      <c r="E235" s="48" t="s">
+      <c r="E235" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F235" s="19" t="s">
@@ -13025,10 +13147,10 @@
       </c>
     </row>
     <row r="236" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A236" s="39" t="s">
+      <c r="A236" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B236" s="19" t="s">
+      <c r="B236" s="49" t="s">
         <v>130</v>
       </c>
       <c r="C236" s="19" t="s">
@@ -13037,7 +13159,7 @@
       <c r="D236" s="22" t="s">
         <v>499</v>
       </c>
-      <c r="E236" s="48" t="s">
+      <c r="E236" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F236" s="19" t="s">
@@ -13066,10 +13188,10 @@
       </c>
     </row>
     <row r="237" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A237" s="39" t="s">
+      <c r="A237" s="35" t="s">
         <v>222</v>
       </c>
-      <c r="B237" s="19" t="s">
+      <c r="B237" s="49" t="s">
         <v>131</v>
       </c>
       <c r="C237" s="19" t="s">
@@ -13107,10 +13229,10 @@
       </c>
     </row>
     <row r="238" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A238" s="39" t="s">
+      <c r="A238" s="35" t="s">
         <v>227</v>
       </c>
-      <c r="B238" s="19" t="s">
+      <c r="B238" s="49" t="s">
         <v>150</v>
       </c>
       <c r="C238" s="19" t="s">
@@ -13119,7 +13241,7 @@
       <c r="D238" s="22" t="s">
         <v>519</v>
       </c>
-      <c r="E238" s="48" t="s">
+      <c r="E238" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F238" s="19" t="s">
@@ -13148,10 +13270,10 @@
       </c>
     </row>
     <row r="239" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A239" s="39" t="s">
+      <c r="A239" s="35" t="s">
         <v>228</v>
       </c>
-      <c r="B239" s="19" t="s">
+      <c r="B239" s="49" t="s">
         <v>151</v>
       </c>
       <c r="C239" s="19" t="s">
@@ -13160,7 +13282,7 @@
       <c r="D239" s="22" t="s">
         <v>520</v>
       </c>
-      <c r="E239" s="48" t="s">
+      <c r="E239" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F239" s="19" t="s">
@@ -13189,10 +13311,10 @@
       </c>
     </row>
     <row r="240" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A240" s="39" t="s">
+      <c r="A240" s="35" t="s">
         <v>562</v>
       </c>
-      <c r="B240" s="19" t="s">
+      <c r="B240" s="49" t="s">
         <v>617</v>
       </c>
       <c r="C240" s="19" t="s">
@@ -13201,7 +13323,7 @@
       <c r="D240" s="21" t="s">
         <v>807</v>
       </c>
-      <c r="E240" s="48" t="s">
+      <c r="E240" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F240" s="19" t="s">
@@ -13230,10 +13352,10 @@
       </c>
     </row>
     <row r="241" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A241" s="39" t="s">
+      <c r="A241" s="35" t="s">
         <v>563</v>
       </c>
-      <c r="B241" s="19" t="s">
+      <c r="B241" s="49" t="s">
         <v>619</v>
       </c>
       <c r="C241" s="19" t="s">
@@ -13271,10 +13393,10 @@
       </c>
     </row>
     <row r="242" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A242" s="39" t="s">
+      <c r="A242" s="35" t="s">
         <v>567</v>
       </c>
-      <c r="B242" s="19" t="s">
+      <c r="B242" s="49" t="s">
         <v>625</v>
       </c>
       <c r="C242" s="19" t="s">
@@ -13283,7 +13405,7 @@
       <c r="D242" s="21" t="s">
         <v>815</v>
       </c>
-      <c r="E242" s="48" t="s">
+      <c r="E242" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F242" s="19" t="s">
@@ -13312,10 +13434,10 @@
       </c>
     </row>
     <row r="243" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A243" s="39" t="s">
+      <c r="A243" s="35" t="s">
         <v>570</v>
       </c>
-      <c r="B243" s="19" t="s">
+      <c r="B243" s="49" t="s">
         <v>628</v>
       </c>
       <c r="C243" s="19" t="s">
@@ -13324,7 +13446,7 @@
       <c r="D243" s="21" t="s">
         <v>818</v>
       </c>
-      <c r="E243" s="48" t="s">
+      <c r="E243" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F243" s="19" t="s">
@@ -13353,10 +13475,10 @@
       </c>
     </row>
     <row r="244" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A244" s="39" t="s">
+      <c r="A244" s="35" t="s">
         <v>572</v>
       </c>
-      <c r="B244" s="19" t="s">
+      <c r="B244" s="49" t="s">
         <v>631</v>
       </c>
       <c r="C244" s="19" t="s">
@@ -13365,7 +13487,7 @@
       <c r="D244" s="21" t="s">
         <v>821</v>
       </c>
-      <c r="E244" s="48" t="s">
+      <c r="E244" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F244" s="19" t="s">
@@ -13394,10 +13516,10 @@
       </c>
     </row>
     <row r="245" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A245" s="39" t="s">
+      <c r="A245" s="35" t="s">
         <v>580</v>
       </c>
-      <c r="B245" s="19" t="s">
+      <c r="B245" s="49" t="s">
         <v>651</v>
       </c>
       <c r="C245" s="19" t="s">
@@ -13406,7 +13528,7 @@
       <c r="D245" s="21" t="s">
         <v>841</v>
       </c>
-      <c r="E245" s="48" t="s">
+      <c r="E245" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F245" s="19" t="s">
@@ -13435,10 +13557,10 @@
       </c>
     </row>
     <row r="246" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A246" s="39" t="s">
+      <c r="A246" s="35" t="s">
         <v>596</v>
       </c>
-      <c r="B246" s="19" t="s">
+      <c r="B246" s="49" t="s">
         <v>677</v>
       </c>
       <c r="C246" s="19" t="s">
@@ -13447,7 +13569,7 @@
       <c r="D246" s="21" t="s">
         <v>867</v>
       </c>
-      <c r="E246" s="48" t="s">
+      <c r="E246" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F246" s="19" t="s">
@@ -13476,10 +13598,10 @@
       </c>
     </row>
     <row r="247" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A247" s="39" t="s">
+      <c r="A247" s="35" t="s">
         <v>597</v>
       </c>
-      <c r="B247" s="19" t="s">
+      <c r="B247" s="49" t="s">
         <v>678</v>
       </c>
       <c r="C247" s="19" t="s">
@@ -13488,7 +13610,7 @@
       <c r="D247" s="21" t="s">
         <v>868</v>
       </c>
-      <c r="E247" s="48" t="s">
+      <c r="E247" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F247" s="19" t="s">
@@ -13517,10 +13639,10 @@
       </c>
     </row>
     <row r="248" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A248" s="39" t="s">
+      <c r="A248" s="35" t="s">
         <v>598</v>
       </c>
-      <c r="B248" s="19" t="s">
+      <c r="B248" s="49" t="s">
         <v>687</v>
       </c>
       <c r="C248" s="19" t="s">
@@ -13529,7 +13651,7 @@
       <c r="D248" s="21" t="s">
         <v>877</v>
       </c>
-      <c r="E248" s="48" t="s">
+      <c r="E248" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F248" s="19" t="s">
@@ -13558,19 +13680,19 @@
       </c>
     </row>
     <row r="249" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A249" s="45" t="s">
+      <c r="A249" s="40" t="s">
         <v>600</v>
       </c>
-      <c r="B249" s="46" t="s">
+      <c r="B249" s="48" t="s">
         <v>691</v>
       </c>
-      <c r="C249" s="46" t="s">
+      <c r="C249" t="s">
         <v>786</v>
       </c>
       <c r="D249" s="21" t="s">
         <v>881</v>
       </c>
-      <c r="E249" s="48" t="s">
+      <c r="E249" s="42" t="s">
         <v>558</v>
       </c>
       <c r="F249" s="19" t="s">
@@ -13599,8 +13721,8 @@
       </c>
     </row>
     <row r="250" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A250" s="43"/>
-      <c r="B250" s="7"/>
+      <c r="A250" s="40"/>
+      <c r="B250" s="51"/>
       <c r="C250" s="6"/>
       <c r="D250" s="7"/>
       <c r="E250" s="1"/>
@@ -13613,8 +13735,8 @@
       <c r="M250" s="2"/>
     </row>
     <row r="251" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A251" s="44"/>
-      <c r="B251" s="7"/>
+      <c r="A251" s="39"/>
+      <c r="B251" s="51"/>
       <c r="C251" s="6"/>
       <c r="D251" s="7"/>
       <c r="E251" s="1"/>
@@ -13627,8 +13749,8 @@
       <c r="M251" s="2"/>
     </row>
     <row r="252" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A252" s="44"/>
-      <c r="B252" s="7"/>
+      <c r="A252" s="39"/>
+      <c r="B252" s="51"/>
       <c r="C252" s="6"/>
       <c r="D252" s="7"/>
       <c r="E252" s="1"/>
@@ -13641,8 +13763,8 @@
       <c r="M252" s="2"/>
     </row>
     <row r="253" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A253" s="44"/>
-      <c r="B253" s="7"/>
+      <c r="A253" s="39"/>
+      <c r="B253" s="51"/>
       <c r="C253" s="6"/>
       <c r="D253" s="7"/>
       <c r="E253" s="1"/>
@@ -13655,8 +13777,8 @@
       <c r="M253" s="2"/>
     </row>
     <row r="254" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A254" s="44"/>
-      <c r="B254" s="7"/>
+      <c r="A254" s="39"/>
+      <c r="B254" s="51"/>
       <c r="C254" s="6"/>
       <c r="D254" s="9"/>
       <c r="E254" s="1"/>
@@ -13669,8 +13791,8 @@
       <c r="M254" s="2"/>
     </row>
     <row r="255" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A255" s="44"/>
-      <c r="B255" s="7"/>
+      <c r="A255" s="39"/>
+      <c r="B255" s="51"/>
       <c r="C255" s="6"/>
       <c r="D255" s="7"/>
       <c r="E255" s="1"/>
@@ -13683,8 +13805,8 @@
       <c r="M255" s="2"/>
     </row>
     <row r="256" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A256" s="44"/>
-      <c r="B256" s="7"/>
+      <c r="A256" s="39"/>
+      <c r="B256" s="51"/>
       <c r="C256" s="6"/>
       <c r="D256" s="9"/>
       <c r="E256" s="1"/>
@@ -13697,8 +13819,8 @@
       <c r="M256" s="2"/>
     </row>
     <row r="257" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A257" s="44"/>
-      <c r="B257" s="7"/>
+      <c r="A257" s="39"/>
+      <c r="B257" s="51"/>
       <c r="C257" s="6"/>
       <c r="D257" s="7"/>
       <c r="E257" s="1"/>
@@ -13711,8 +13833,8 @@
       <c r="M257" s="2"/>
     </row>
     <row r="258" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A258" s="44"/>
-      <c r="B258" s="7"/>
+      <c r="A258" s="39"/>
+      <c r="B258" s="51"/>
       <c r="C258" s="6"/>
       <c r="D258" s="7"/>
       <c r="E258" s="1"/>
@@ -13725,8 +13847,8 @@
       <c r="M258" s="2"/>
     </row>
     <row r="259" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A259" s="44"/>
-      <c r="B259" s="7"/>
+      <c r="A259" s="39"/>
+      <c r="B259" s="51"/>
       <c r="C259" s="6"/>
       <c r="D259" s="7"/>
       <c r="E259" s="1"/>
@@ -13739,8 +13861,8 @@
       <c r="M259" s="2"/>
     </row>
     <row r="260" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A260" s="44"/>
-      <c r="B260" s="7"/>
+      <c r="A260" s="39"/>
+      <c r="B260" s="51"/>
       <c r="C260" s="6"/>
       <c r="D260" s="7"/>
       <c r="E260" s="1"/>
@@ -13753,8 +13875,8 @@
       <c r="M260" s="2"/>
     </row>
     <row r="261" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A261" s="44"/>
-      <c r="B261" s="7"/>
+      <c r="A261" s="39"/>
+      <c r="B261" s="51"/>
       <c r="C261" s="6"/>
       <c r="D261" s="7"/>
       <c r="E261" s="1"/>
@@ -13767,8 +13889,8 @@
       <c r="M261" s="2"/>
     </row>
     <row r="262" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A262" s="44"/>
-      <c r="B262" s="7"/>
+      <c r="A262" s="39"/>
+      <c r="B262" s="51"/>
       <c r="C262" s="6"/>
       <c r="D262" s="7"/>
       <c r="E262" s="1"/>
@@ -13781,8 +13903,8 @@
       <c r="M262" s="2"/>
     </row>
     <row r="263" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A263" s="44"/>
-      <c r="B263" s="7"/>
+      <c r="A263" s="39"/>
+      <c r="B263" s="51"/>
       <c r="C263" s="6"/>
       <c r="D263" s="7"/>
       <c r="E263" s="1"/>
@@ -13795,8 +13917,8 @@
       <c r="M263" s="2"/>
     </row>
     <row r="264" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A264" s="44"/>
-      <c r="B264" s="7"/>
+      <c r="A264" s="39"/>
+      <c r="B264" s="51"/>
       <c r="C264" s="6"/>
       <c r="D264" s="7"/>
       <c r="E264" s="1"/>
@@ -13809,8 +13931,8 @@
       <c r="M264" s="2"/>
     </row>
     <row r="265" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A265" s="44"/>
-      <c r="B265" s="7"/>
+      <c r="A265" s="39"/>
+      <c r="B265" s="51"/>
       <c r="C265" s="6"/>
       <c r="D265" s="7"/>
       <c r="E265" s="1"/>
@@ -13823,8 +13945,8 @@
       <c r="M265" s="2"/>
     </row>
     <row r="266" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A266" s="44"/>
-      <c r="B266" s="7"/>
+      <c r="A266" s="39"/>
+      <c r="B266" s="51"/>
       <c r="C266" s="6"/>
       <c r="D266" s="7"/>
       <c r="E266" s="1"/>
@@ -13837,8 +13959,8 @@
       <c r="M266" s="2"/>
     </row>
     <row r="267" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A267" s="44"/>
-      <c r="B267" s="7"/>
+      <c r="A267" s="39"/>
+      <c r="B267" s="51"/>
       <c r="C267" s="6"/>
       <c r="D267" s="7"/>
       <c r="E267" s="1"/>
@@ -13851,8 +13973,8 @@
       <c r="M267" s="2"/>
     </row>
     <row r="268" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A268" s="44"/>
-      <c r="B268" s="7"/>
+      <c r="A268" s="39"/>
+      <c r="B268" s="51"/>
       <c r="C268" s="6"/>
       <c r="D268" s="7"/>
       <c r="E268" s="1"/>
@@ -13865,8 +13987,8 @@
       <c r="M268" s="2"/>
     </row>
     <row r="269" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A269" s="44"/>
-      <c r="B269" s="7"/>
+      <c r="A269" s="39"/>
+      <c r="B269" s="51"/>
       <c r="C269" s="6"/>
       <c r="D269" s="7"/>
       <c r="E269" s="1"/>
@@ -13879,8 +14001,8 @@
       <c r="M269" s="2"/>
     </row>
     <row r="270" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A270" s="44"/>
-      <c r="B270" s="7"/>
+      <c r="A270" s="39"/>
+      <c r="B270" s="51"/>
       <c r="C270" s="6"/>
       <c r="D270" s="7"/>
       <c r="E270" s="1"/>
@@ -13893,8 +14015,8 @@
       <c r="M270" s="2"/>
     </row>
     <row r="271" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A271" s="44"/>
-      <c r="B271" s="7"/>
+      <c r="A271" s="39"/>
+      <c r="B271" s="51"/>
       <c r="C271" s="6"/>
       <c r="D271" s="7"/>
       <c r="E271" s="1"/>
@@ -13907,8 +14029,8 @@
       <c r="M271" s="2"/>
     </row>
     <row r="272" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A272" s="44"/>
-      <c r="B272" s="7"/>
+      <c r="A272" s="39"/>
+      <c r="B272" s="51"/>
       <c r="C272" s="6"/>
       <c r="D272" s="7"/>
       <c r="E272" s="1"/>
@@ -13921,8 +14043,8 @@
       <c r="M272" s="2"/>
     </row>
     <row r="273" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A273" s="44"/>
-      <c r="B273" s="7"/>
+      <c r="A273" s="39"/>
+      <c r="B273" s="51"/>
       <c r="C273" s="6"/>
       <c r="D273" s="7"/>
       <c r="E273" s="1"/>
@@ -13935,8 +14057,8 @@
       <c r="M273" s="2"/>
     </row>
     <row r="274" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A274" s="44"/>
-      <c r="B274" s="7"/>
+      <c r="A274" s="39"/>
+      <c r="B274" s="51"/>
       <c r="C274" s="6"/>
       <c r="D274" s="7"/>
       <c r="E274" s="1"/>
@@ -13949,8 +14071,8 @@
       <c r="M274" s="2"/>
     </row>
     <row r="275" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A275" s="44"/>
-      <c r="B275" s="7"/>
+      <c r="A275" s="39"/>
+      <c r="B275" s="51"/>
       <c r="C275" s="6"/>
       <c r="D275" s="7"/>
       <c r="E275" s="1"/>
@@ -13963,8 +14085,8 @@
       <c r="M275" s="2"/>
     </row>
     <row r="276" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A276" s="44"/>
-      <c r="B276" s="7"/>
+      <c r="A276" s="39"/>
+      <c r="B276" s="51"/>
       <c r="C276" s="6"/>
       <c r="D276" s="7"/>
       <c r="E276" s="1"/>
@@ -13977,8 +14099,8 @@
       <c r="M276" s="2"/>
     </row>
     <row r="277" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A277" s="44"/>
-      <c r="B277" s="7"/>
+      <c r="A277" s="39"/>
+      <c r="B277" s="51"/>
       <c r="C277" s="6"/>
       <c r="D277" s="7"/>
       <c r="E277" s="1"/>
@@ -13991,8 +14113,8 @@
       <c r="M277" s="2"/>
     </row>
     <row r="278" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A278" s="44"/>
-      <c r="B278" s="7"/>
+      <c r="A278" s="39"/>
+      <c r="B278" s="51"/>
       <c r="C278" s="6"/>
       <c r="D278" s="7"/>
       <c r="E278" s="1"/>
@@ -14005,8 +14127,8 @@
       <c r="M278" s="2"/>
     </row>
     <row r="279" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A279" s="44"/>
-      <c r="B279" s="7"/>
+      <c r="A279" s="39"/>
+      <c r="B279" s="51"/>
       <c r="C279" s="6"/>
       <c r="D279" s="9"/>
       <c r="E279" s="1"/>
@@ -14019,8 +14141,8 @@
       <c r="M279" s="2"/>
     </row>
     <row r="280" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A280" s="44"/>
-      <c r="B280" s="7"/>
+      <c r="A280" s="39"/>
+      <c r="B280" s="51"/>
       <c r="C280" s="6"/>
       <c r="D280" s="7"/>
       <c r="E280" s="1"/>
@@ -14033,8 +14155,8 @@
       <c r="M280" s="2"/>
     </row>
     <row r="281" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A281" s="44"/>
-      <c r="B281" s="7"/>
+      <c r="A281" s="39"/>
+      <c r="B281" s="51"/>
       <c r="C281" s="6"/>
       <c r="D281" s="7"/>
       <c r="E281" s="1"/>
@@ -14047,8 +14169,8 @@
       <c r="M281" s="2"/>
     </row>
     <row r="282" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A282" s="44"/>
-      <c r="B282" s="7"/>
+      <c r="A282" s="39"/>
+      <c r="B282" s="51"/>
       <c r="C282" s="6"/>
       <c r="D282" s="7"/>
       <c r="E282" s="1"/>
@@ -14061,8 +14183,8 @@
       <c r="M282" s="2"/>
     </row>
     <row r="283" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A283" s="44"/>
-      <c r="B283" s="7"/>
+      <c r="A283" s="39"/>
+      <c r="B283" s="51"/>
       <c r="C283" s="6"/>
       <c r="D283" s="7"/>
       <c r="E283" s="1"/>
@@ -14075,8 +14197,8 @@
       <c r="M283" s="2"/>
     </row>
     <row r="284" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A284" s="44"/>
-      <c r="B284" s="7"/>
+      <c r="A284" s="39"/>
+      <c r="B284" s="51"/>
       <c r="C284" s="6"/>
       <c r="D284" s="7"/>
       <c r="E284" s="1"/>
@@ -14089,8 +14211,8 @@
       <c r="M284" s="2"/>
     </row>
     <row r="285" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A285" s="44"/>
-      <c r="B285" s="7"/>
+      <c r="A285" s="39"/>
+      <c r="B285" s="51"/>
       <c r="C285" s="6"/>
       <c r="D285" s="7"/>
       <c r="E285" s="1"/>
@@ -14103,8 +14225,8 @@
       <c r="M285" s="2"/>
     </row>
     <row r="286" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A286" s="44"/>
-      <c r="B286" s="7"/>
+      <c r="A286" s="39"/>
+      <c r="B286" s="51"/>
       <c r="C286" s="6"/>
       <c r="D286" s="7"/>
       <c r="E286" s="1"/>
@@ -14117,8 +14239,8 @@
       <c r="M286" s="2"/>
     </row>
     <row r="287" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A287" s="44"/>
-      <c r="B287" s="7"/>
+      <c r="A287" s="39"/>
+      <c r="B287" s="51"/>
       <c r="C287" s="6"/>
       <c r="D287" s="7"/>
       <c r="E287" s="1"/>
@@ -14131,8 +14253,8 @@
       <c r="M287" s="2"/>
     </row>
     <row r="288" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A288" s="44"/>
-      <c r="B288" s="7"/>
+      <c r="A288" s="39"/>
+      <c r="B288" s="51"/>
       <c r="C288" s="6"/>
       <c r="D288" s="7"/>
       <c r="E288" s="1"/>
@@ -14145,8 +14267,8 @@
       <c r="M288" s="2"/>
     </row>
     <row r="289" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A289" s="44"/>
-      <c r="B289" s="7"/>
+      <c r="A289" s="39"/>
+      <c r="B289" s="51"/>
       <c r="C289" s="6"/>
       <c r="D289" s="7"/>
       <c r="E289" s="1"/>
@@ -14159,8 +14281,8 @@
       <c r="M289" s="2"/>
     </row>
     <row r="290" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A290" s="44"/>
-      <c r="B290" s="7"/>
+      <c r="A290" s="39"/>
+      <c r="B290" s="51"/>
       <c r="C290" s="6"/>
       <c r="D290" s="7"/>
       <c r="E290" s="1"/>
@@ -14173,8 +14295,8 @@
       <c r="M290" s="2"/>
     </row>
     <row r="291" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A291" s="44"/>
-      <c r="B291" s="7"/>
+      <c r="A291" s="39"/>
+      <c r="B291" s="51"/>
       <c r="C291" s="6"/>
       <c r="D291" s="7"/>
       <c r="E291" s="1"/>
@@ -14187,8 +14309,8 @@
       <c r="M291" s="2"/>
     </row>
     <row r="292" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A292" s="44"/>
-      <c r="B292" s="7"/>
+      <c r="A292" s="39"/>
+      <c r="B292" s="51"/>
       <c r="C292" s="6"/>
       <c r="D292" s="7"/>
       <c r="E292" s="1"/>
@@ -14201,8 +14323,8 @@
       <c r="M292" s="2"/>
     </row>
     <row r="293" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A293" s="44"/>
-      <c r="B293" s="7"/>
+      <c r="A293" s="39"/>
+      <c r="B293" s="51"/>
       <c r="C293" s="6"/>
       <c r="D293" s="7"/>
       <c r="E293" s="1"/>
@@ -14215,8 +14337,8 @@
       <c r="M293" s="2"/>
     </row>
     <row r="294" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A294" s="44"/>
-      <c r="B294" s="7"/>
+      <c r="A294" s="39"/>
+      <c r="B294" s="51"/>
       <c r="C294" s="6"/>
       <c r="D294" s="7"/>
       <c r="E294" s="1"/>
@@ -14229,8 +14351,8 @@
       <c r="M294" s="2"/>
     </row>
     <row r="295" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A295" s="44"/>
-      <c r="B295" s="7"/>
+      <c r="A295" s="39"/>
+      <c r="B295" s="51"/>
       <c r="C295" s="6"/>
       <c r="D295" s="7"/>
       <c r="E295" s="1"/>
@@ -14243,8 +14365,8 @@
       <c r="M295" s="2"/>
     </row>
     <row r="296" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A296" s="44"/>
-      <c r="B296" s="7"/>
+      <c r="A296" s="39"/>
+      <c r="B296" s="51"/>
       <c r="C296" s="6"/>
       <c r="D296" s="7"/>
       <c r="E296" s="1"/>
@@ -14257,8 +14379,8 @@
       <c r="M296" s="2"/>
     </row>
     <row r="297" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A297" s="44"/>
-      <c r="B297" s="7"/>
+      <c r="A297" s="39"/>
+      <c r="B297" s="51"/>
       <c r="C297" s="6"/>
       <c r="D297" s="7"/>
       <c r="E297" s="1"/>
@@ -14271,8 +14393,8 @@
       <c r="M297" s="2"/>
     </row>
     <row r="298" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A298" s="44"/>
-      <c r="B298" s="7"/>
+      <c r="A298" s="39"/>
+      <c r="B298" s="51"/>
       <c r="C298" s="6"/>
       <c r="D298" s="7"/>
       <c r="E298" s="1"/>
@@ -14285,8 +14407,8 @@
       <c r="M298" s="2"/>
     </row>
     <row r="299" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A299" s="44"/>
-      <c r="B299" s="7"/>
+      <c r="A299" s="39"/>
+      <c r="B299" s="51"/>
       <c r="C299" s="6"/>
       <c r="D299" s="7"/>
       <c r="E299" s="1"/>
@@ -14299,8 +14421,8 @@
       <c r="M299" s="2"/>
     </row>
     <row r="300" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A300" s="44"/>
-      <c r="B300" s="7"/>
+      <c r="A300" s="39"/>
+      <c r="B300" s="51"/>
       <c r="C300" s="6"/>
       <c r="D300" s="7"/>
       <c r="E300" s="1"/>
@@ -14313,8 +14435,8 @@
       <c r="M300" s="2"/>
     </row>
     <row r="301" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A301" s="44"/>
-      <c r="B301" s="7"/>
+      <c r="A301" s="39"/>
+      <c r="B301" s="51"/>
       <c r="C301" s="6"/>
       <c r="D301" s="7"/>
       <c r="E301" s="1"/>
@@ -14327,8 +14449,8 @@
       <c r="M301" s="2"/>
     </row>
     <row r="302" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A302" s="44"/>
-      <c r="B302" s="7"/>
+      <c r="A302" s="39"/>
+      <c r="B302" s="51"/>
       <c r="C302" s="6"/>
       <c r="D302" s="7"/>
       <c r="E302" s="1"/>
@@ -14341,8 +14463,8 @@
       <c r="M302" s="2"/>
     </row>
     <row r="303" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A303" s="44"/>
-      <c r="B303" s="7"/>
+      <c r="A303" s="39"/>
+      <c r="B303" s="51"/>
       <c r="C303" s="6"/>
       <c r="D303" s="7"/>
       <c r="E303" s="1"/>
@@ -14355,8 +14477,8 @@
       <c r="M303" s="2"/>
     </row>
     <row r="304" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A304" s="44"/>
-      <c r="B304" s="7"/>
+      <c r="A304" s="39"/>
+      <c r="B304" s="51"/>
       <c r="C304" s="6"/>
       <c r="D304" s="7"/>
       <c r="E304" s="1"/>
@@ -14369,8 +14491,8 @@
       <c r="M304" s="2"/>
     </row>
     <row r="305" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A305" s="44"/>
-      <c r="B305" s="7"/>
+      <c r="A305" s="39"/>
+      <c r="B305" s="51"/>
       <c r="C305" s="6"/>
       <c r="D305" s="7"/>
       <c r="E305" s="1"/>
@@ -14383,8 +14505,8 @@
       <c r="M305" s="2"/>
     </row>
     <row r="306" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A306" s="44"/>
-      <c r="B306" s="7"/>
+      <c r="A306" s="39"/>
+      <c r="B306" s="51"/>
       <c r="C306" s="6"/>
       <c r="D306" s="7"/>
       <c r="E306" s="1"/>
@@ -14397,8 +14519,8 @@
       <c r="M306" s="2"/>
     </row>
     <row r="307" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A307" s="44"/>
-      <c r="B307" s="7"/>
+      <c r="A307" s="39"/>
+      <c r="B307" s="51"/>
       <c r="C307" s="6"/>
       <c r="D307" s="7"/>
       <c r="E307" s="1"/>
@@ -14411,8 +14533,8 @@
       <c r="M307" s="2"/>
     </row>
     <row r="308" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A308" s="44"/>
-      <c r="B308" s="7"/>
+      <c r="A308" s="39"/>
+      <c r="B308" s="51"/>
       <c r="C308" s="6"/>
       <c r="D308" s="7"/>
       <c r="E308" s="1"/>
@@ -14425,8 +14547,8 @@
       <c r="M308" s="2"/>
     </row>
     <row r="309" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A309" s="44"/>
-      <c r="B309" s="7"/>
+      <c r="A309" s="39"/>
+      <c r="B309" s="51"/>
       <c r="C309" s="6"/>
       <c r="D309" s="7"/>
       <c r="E309" s="1"/>
@@ -14439,8 +14561,8 @@
       <c r="M309" s="2"/>
     </row>
     <row r="310" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A310" s="44"/>
-      <c r="B310" s="7"/>
+      <c r="A310" s="39"/>
+      <c r="B310" s="51"/>
       <c r="C310" s="6"/>
       <c r="D310" s="7"/>
       <c r="E310" s="1"/>
@@ -14453,8 +14575,8 @@
       <c r="M310" s="2"/>
     </row>
     <row r="311" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A311" s="44"/>
-      <c r="B311" s="7"/>
+      <c r="A311" s="39"/>
+      <c r="B311" s="51"/>
       <c r="C311" s="6"/>
       <c r="D311" s="7"/>
       <c r="E311" s="1"/>
@@ -14467,8 +14589,8 @@
       <c r="M311" s="2"/>
     </row>
     <row r="312" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A312" s="44"/>
-      <c r="B312" s="7"/>
+      <c r="A312" s="39"/>
+      <c r="B312" s="51"/>
       <c r="C312" s="6"/>
       <c r="D312" s="7"/>
       <c r="E312" s="1"/>
@@ -14481,8 +14603,8 @@
       <c r="M312" s="2"/>
     </row>
     <row r="313" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A313" s="44"/>
-      <c r="B313" s="7"/>
+      <c r="A313" s="39"/>
+      <c r="B313" s="51"/>
       <c r="C313" s="6"/>
       <c r="D313" s="7"/>
       <c r="E313" s="1"/>
@@ -14495,8 +14617,8 @@
       <c r="M313" s="2"/>
     </row>
     <row r="314" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A314" s="44"/>
-      <c r="B314" s="7"/>
+      <c r="A314" s="39"/>
+      <c r="B314" s="51"/>
       <c r="C314" s="6"/>
       <c r="D314" s="7"/>
       <c r="E314" s="1"/>
@@ -14509,8 +14631,8 @@
       <c r="M314" s="2"/>
     </row>
     <row r="315" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A315" s="44"/>
-      <c r="B315" s="7"/>
+      <c r="A315" s="39"/>
+      <c r="B315" s="51"/>
       <c r="C315" s="6"/>
       <c r="D315" s="7"/>
       <c r="E315" s="1"/>
@@ -14523,8 +14645,8 @@
       <c r="M315" s="2"/>
     </row>
     <row r="316" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A316" s="44"/>
-      <c r="B316" s="7"/>
+      <c r="A316" s="39"/>
+      <c r="B316" s="51"/>
       <c r="C316" s="6"/>
       <c r="D316" s="7"/>
       <c r="E316" s="1"/>
@@ -14537,8 +14659,8 @@
       <c r="M316" s="2"/>
     </row>
     <row r="317" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A317" s="44"/>
-      <c r="B317" s="7"/>
+      <c r="A317" s="39"/>
+      <c r="B317" s="51"/>
       <c r="C317" s="6"/>
       <c r="D317" s="7"/>
       <c r="E317" s="1"/>
@@ -14551,8 +14673,8 @@
       <c r="M317" s="2"/>
     </row>
     <row r="318" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A318" s="44"/>
-      <c r="B318" s="7"/>
+      <c r="A318" s="39"/>
+      <c r="B318" s="51"/>
       <c r="C318" s="6"/>
       <c r="D318" s="7"/>
       <c r="E318" s="1"/>
@@ -14565,8 +14687,8 @@
       <c r="M318" s="2"/>
     </row>
     <row r="319" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A319" s="44"/>
-      <c r="B319" s="7"/>
+      <c r="A319" s="39"/>
+      <c r="B319" s="51"/>
       <c r="C319" s="6"/>
       <c r="D319" s="7"/>
       <c r="E319" s="1"/>
@@ -14579,8 +14701,8 @@
       <c r="M319" s="2"/>
     </row>
     <row r="320" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A320" s="44"/>
-      <c r="B320" s="7"/>
+      <c r="A320" s="39"/>
+      <c r="B320" s="51"/>
       <c r="C320" s="6"/>
       <c r="D320" s="7"/>
       <c r="E320" s="1"/>
@@ -14593,8 +14715,8 @@
       <c r="M320" s="2"/>
     </row>
     <row r="321" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A321" s="44"/>
-      <c r="B321" s="7"/>
+      <c r="A321" s="39"/>
+      <c r="B321" s="51"/>
       <c r="C321" s="6"/>
       <c r="D321" s="7"/>
       <c r="E321" s="1"/>
@@ -14607,8 +14729,8 @@
       <c r="M321" s="2"/>
     </row>
     <row r="322" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A322" s="44"/>
-      <c r="B322" s="7"/>
+      <c r="A322" s="39"/>
+      <c r="B322" s="51"/>
       <c r="C322" s="6"/>
       <c r="D322" s="7"/>
       <c r="E322" s="1"/>
@@ -14621,8 +14743,8 @@
       <c r="M322" s="2"/>
     </row>
     <row r="323" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A323" s="44"/>
-      <c r="B323" s="7"/>
+      <c r="A323" s="39"/>
+      <c r="B323" s="51"/>
       <c r="C323" s="6"/>
       <c r="D323" s="7"/>
       <c r="E323" s="1"/>
@@ -14635,8 +14757,8 @@
       <c r="M323" s="2"/>
     </row>
     <row r="324" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A324" s="44"/>
-      <c r="B324" s="7"/>
+      <c r="A324" s="39"/>
+      <c r="B324" s="51"/>
       <c r="C324" s="6"/>
       <c r="D324" s="7"/>
       <c r="E324" s="1"/>
@@ -14649,8 +14771,8 @@
       <c r="M324" s="2"/>
     </row>
     <row r="325" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A325" s="44"/>
-      <c r="B325" s="7"/>
+      <c r="A325" s="39"/>
+      <c r="B325" s="51"/>
       <c r="C325" s="6"/>
       <c r="D325" s="7"/>
       <c r="E325" s="1"/>
@@ -14663,8 +14785,8 @@
       <c r="M325" s="2"/>
     </row>
     <row r="326" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A326" s="44"/>
-      <c r="B326" s="7"/>
+      <c r="A326" s="39"/>
+      <c r="B326" s="51"/>
       <c r="C326" s="6"/>
       <c r="D326" s="7"/>
       <c r="E326" s="1"/>
@@ -14677,8 +14799,8 @@
       <c r="M326" s="2"/>
     </row>
     <row r="327" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A327" s="44"/>
-      <c r="B327" s="7"/>
+      <c r="A327" s="39"/>
+      <c r="B327" s="51"/>
       <c r="C327" s="6"/>
       <c r="D327" s="7"/>
       <c r="E327" s="1"/>
@@ -14691,8 +14813,8 @@
       <c r="M327" s="2"/>
     </row>
     <row r="328" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A328" s="44"/>
-      <c r="B328" s="7"/>
+      <c r="A328" s="39"/>
+      <c r="B328" s="51"/>
       <c r="C328" s="6"/>
       <c r="D328" s="7"/>
       <c r="E328" s="1"/>
@@ -14705,8 +14827,8 @@
       <c r="M328" s="2"/>
     </row>
     <row r="329" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A329" s="44"/>
-      <c r="B329" s="7"/>
+      <c r="A329" s="39"/>
+      <c r="B329" s="51"/>
       <c r="C329" s="6"/>
       <c r="D329" s="7"/>
       <c r="E329" s="1"/>
@@ -14719,8 +14841,8 @@
       <c r="M329" s="2"/>
     </row>
     <row r="330" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A330" s="44"/>
-      <c r="B330" s="7"/>
+      <c r="A330" s="39"/>
+      <c r="B330" s="51"/>
       <c r="C330" s="6"/>
       <c r="D330" s="7"/>
       <c r="E330" s="1"/>
@@ -14733,8 +14855,8 @@
       <c r="M330" s="2"/>
     </row>
     <row r="331" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A331" s="44"/>
-      <c r="B331" s="7"/>
+      <c r="A331" s="39"/>
+      <c r="B331" s="51"/>
       <c r="C331" s="6"/>
       <c r="D331" s="7"/>
       <c r="E331" s="1"/>
@@ -14747,8 +14869,8 @@
       <c r="M331" s="2"/>
     </row>
     <row r="332" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A332" s="44"/>
-      <c r="B332" s="7"/>
+      <c r="A332" s="39"/>
+      <c r="B332" s="51"/>
       <c r="C332" s="6"/>
       <c r="D332" s="7"/>
       <c r="E332" s="1"/>
@@ -14761,8 +14883,8 @@
       <c r="M332" s="2"/>
     </row>
     <row r="333" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A333" s="44"/>
-      <c r="B333" s="7"/>
+      <c r="A333" s="39"/>
+      <c r="B333" s="51"/>
       <c r="C333" s="6"/>
       <c r="D333" s="7"/>
       <c r="E333" s="1"/>
@@ -14775,8 +14897,8 @@
       <c r="M333" s="2"/>
     </row>
     <row r="334" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A334" s="44"/>
-      <c r="B334" s="7"/>
+      <c r="A334" s="39"/>
+      <c r="B334" s="51"/>
       <c r="C334" s="6"/>
       <c r="D334" s="7"/>
       <c r="E334" s="1"/>
@@ -14789,8 +14911,8 @@
       <c r="M334" s="2"/>
     </row>
     <row r="335" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A335" s="44"/>
-      <c r="B335" s="7"/>
+      <c r="A335" s="39"/>
+      <c r="B335" s="51"/>
       <c r="C335" s="6"/>
       <c r="D335" s="7"/>
       <c r="E335" s="1"/>
@@ -14803,8 +14925,8 @@
       <c r="M335" s="2"/>
     </row>
     <row r="336" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A336" s="44"/>
-      <c r="B336" s="7"/>
+      <c r="A336" s="39"/>
+      <c r="B336" s="51"/>
       <c r="C336" s="6"/>
       <c r="D336" s="7"/>
       <c r="E336" s="1"/>
@@ -14817,8 +14939,8 @@
       <c r="M336" s="2"/>
     </row>
     <row r="337" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A337" s="44"/>
-      <c r="B337" s="7"/>
+      <c r="A337" s="39"/>
+      <c r="B337" s="51"/>
       <c r="C337" s="6"/>
       <c r="D337" s="7"/>
       <c r="E337" s="1"/>
@@ -14831,8 +14953,8 @@
       <c r="M337" s="2"/>
     </row>
     <row r="338" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A338" s="44"/>
-      <c r="B338" s="7"/>
+      <c r="A338" s="39"/>
+      <c r="B338" s="51"/>
       <c r="C338" s="6"/>
       <c r="D338" s="7"/>
       <c r="E338" s="1"/>
@@ -14845,8 +14967,8 @@
       <c r="M338" s="2"/>
     </row>
     <row r="339" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A339" s="44"/>
-      <c r="B339" s="7"/>
+      <c r="A339" s="39"/>
+      <c r="B339" s="51"/>
       <c r="C339" s="6"/>
       <c r="D339" s="7"/>
       <c r="E339" s="1"/>
@@ -14859,8 +14981,8 @@
       <c r="M339" s="2"/>
     </row>
     <row r="340" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A340" s="44"/>
-      <c r="B340" s="7"/>
+      <c r="A340" s="39"/>
+      <c r="B340" s="51"/>
       <c r="C340" s="6"/>
       <c r="D340" s="10"/>
       <c r="E340" s="1"/>
@@ -14873,8 +14995,8 @@
       <c r="M340" s="2"/>
     </row>
     <row r="341" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A341" s="44"/>
-      <c r="B341" s="7"/>
+      <c r="A341" s="39"/>
+      <c r="B341" s="51"/>
       <c r="C341" s="6"/>
       <c r="D341" s="7"/>
       <c r="E341" s="1"/>
@@ -14887,8 +15009,8 @@
       <c r="M341" s="2"/>
     </row>
     <row r="342" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A342" s="44"/>
-      <c r="B342" s="7"/>
+      <c r="A342" s="39"/>
+      <c r="B342" s="51"/>
       <c r="C342" s="6"/>
       <c r="D342" s="7"/>
       <c r="E342" s="1"/>
@@ -14901,8 +15023,8 @@
       <c r="M342" s="2"/>
     </row>
     <row r="343" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A343" s="44"/>
-      <c r="B343" s="7"/>
+      <c r="A343" s="39"/>
+      <c r="B343" s="51"/>
       <c r="C343" s="6"/>
       <c r="D343" s="7"/>
       <c r="E343" s="1"/>
@@ -14915,8 +15037,8 @@
       <c r="M343" s="2"/>
     </row>
     <row r="344" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A344" s="44"/>
-      <c r="B344" s="7"/>
+      <c r="A344" s="39"/>
+      <c r="B344" s="51"/>
       <c r="C344" s="6"/>
       <c r="D344" s="7"/>
       <c r="E344" s="1"/>
@@ -14929,8 +15051,8 @@
       <c r="M344" s="2"/>
     </row>
     <row r="345" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A345" s="44"/>
-      <c r="B345" s="7"/>
+      <c r="A345" s="39"/>
+      <c r="B345" s="51"/>
       <c r="C345" s="6"/>
       <c r="D345" s="7"/>
       <c r="E345" s="1"/>
@@ -14943,8 +15065,8 @@
       <c r="M345" s="2"/>
     </row>
     <row r="346" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A346" s="44"/>
-      <c r="B346" s="7"/>
+      <c r="A346" s="39"/>
+      <c r="B346" s="51"/>
       <c r="C346" s="6"/>
       <c r="D346" s="7"/>
       <c r="E346" s="1"/>
@@ -14957,8 +15079,8 @@
       <c r="M346" s="2"/>
     </row>
     <row r="347" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A347" s="44"/>
-      <c r="B347" s="7"/>
+      <c r="A347" s="39"/>
+      <c r="B347" s="51"/>
       <c r="C347" s="6"/>
       <c r="D347" s="7"/>
       <c r="E347" s="1"/>
@@ -14971,8 +15093,8 @@
       <c r="M347" s="2"/>
     </row>
     <row r="348" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A348" s="44"/>
-      <c r="B348" s="7"/>
+      <c r="A348" s="39"/>
+      <c r="B348" s="51"/>
       <c r="C348" s="6"/>
       <c r="D348" s="7"/>
       <c r="E348" s="1"/>
@@ -14985,8 +15107,8 @@
       <c r="M348" s="2"/>
     </row>
     <row r="349" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A349" s="44"/>
-      <c r="B349" s="7"/>
+      <c r="A349" s="39"/>
+      <c r="B349" s="51"/>
       <c r="C349" s="6"/>
       <c r="D349" s="7"/>
       <c r="E349" s="1"/>
@@ -14999,8 +15121,8 @@
       <c r="M349" s="2"/>
     </row>
     <row r="350" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A350" s="44"/>
-      <c r="B350" s="7"/>
+      <c r="A350" s="39"/>
+      <c r="B350" s="51"/>
       <c r="C350" s="6"/>
       <c r="D350" s="7"/>
       <c r="E350" s="1"/>
@@ -15013,8 +15135,8 @@
       <c r="M350" s="2"/>
     </row>
     <row r="351" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A351" s="44"/>
-      <c r="B351" s="7"/>
+      <c r="A351" s="39"/>
+      <c r="B351" s="51"/>
       <c r="C351" s="6"/>
       <c r="D351" s="7"/>
       <c r="E351" s="1"/>
@@ -15027,8 +15149,8 @@
       <c r="M351" s="2"/>
     </row>
     <row r="352" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A352" s="44"/>
-      <c r="B352" s="7"/>
+      <c r="A352" s="39"/>
+      <c r="B352" s="51"/>
       <c r="C352" s="6"/>
       <c r="D352" s="7"/>
       <c r="E352" s="1"/>
@@ -15041,8 +15163,8 @@
       <c r="M352" s="2"/>
     </row>
     <row r="353" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A353" s="44"/>
-      <c r="B353" s="7"/>
+      <c r="A353" s="39"/>
+      <c r="B353" s="51"/>
       <c r="C353" s="6"/>
       <c r="D353" s="7"/>
       <c r="E353" s="1"/>
@@ -15055,8 +15177,8 @@
       <c r="M353" s="2"/>
     </row>
     <row r="354" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A354" s="44"/>
-      <c r="B354" s="7"/>
+      <c r="A354" s="39"/>
+      <c r="B354" s="51"/>
       <c r="C354" s="6"/>
       <c r="D354" s="7"/>
       <c r="E354" s="1"/>
@@ -15069,8 +15191,8 @@
       <c r="M354" s="2"/>
     </row>
     <row r="355" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A355" s="44"/>
-      <c r="B355" s="7"/>
+      <c r="A355" s="39"/>
+      <c r="B355" s="51"/>
       <c r="C355" s="6"/>
       <c r="D355" s="7"/>
       <c r="E355" s="1"/>
@@ -15083,8 +15205,8 @@
       <c r="M355" s="2"/>
     </row>
     <row r="356" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A356" s="44"/>
-      <c r="B356" s="7"/>
+      <c r="A356" s="39"/>
+      <c r="B356" s="51"/>
       <c r="C356" s="6"/>
       <c r="D356" s="7"/>
       <c r="E356" s="1"/>
@@ -15097,8 +15219,8 @@
       <c r="M356" s="2"/>
     </row>
     <row r="357" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A357" s="44"/>
-      <c r="B357" s="7"/>
+      <c r="A357" s="39"/>
+      <c r="B357" s="51"/>
       <c r="C357" s="6"/>
       <c r="D357" s="7"/>
       <c r="E357" s="1"/>
@@ -15111,8 +15233,8 @@
       <c r="M357" s="2"/>
     </row>
     <row r="358" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A358" s="44"/>
-      <c r="B358" s="7"/>
+      <c r="A358" s="39"/>
+      <c r="B358" s="51"/>
       <c r="C358" s="6"/>
       <c r="D358" s="7"/>
       <c r="E358" s="1"/>
@@ -15125,8 +15247,8 @@
       <c r="M358" s="2"/>
     </row>
     <row r="359" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A359" s="44"/>
-      <c r="B359" s="7"/>
+      <c r="A359" s="39"/>
+      <c r="B359" s="51"/>
       <c r="C359" s="6"/>
       <c r="D359" s="7"/>
       <c r="E359" s="1"/>
@@ -15139,8 +15261,8 @@
       <c r="M359" s="2"/>
     </row>
     <row r="360" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A360" s="44"/>
-      <c r="B360" s="7"/>
+      <c r="A360" s="39"/>
+      <c r="B360" s="51"/>
       <c r="C360" s="6"/>
       <c r="D360" s="7"/>
       <c r="E360" s="1"/>
@@ -15153,8 +15275,8 @@
       <c r="M360" s="2"/>
     </row>
     <row r="361" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A361" s="44"/>
-      <c r="B361" s="7"/>
+      <c r="A361" s="39"/>
+      <c r="B361" s="51"/>
       <c r="C361" s="6"/>
       <c r="D361" s="7"/>
       <c r="E361" s="1"/>
@@ -15167,8 +15289,8 @@
       <c r="M361" s="2"/>
     </row>
     <row r="362" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A362" s="44"/>
-      <c r="B362" s="7"/>
+      <c r="A362" s="39"/>
+      <c r="B362" s="51"/>
       <c r="C362" s="6"/>
       <c r="D362" s="11"/>
       <c r="E362" s="1"/>
@@ -15181,8 +15303,8 @@
       <c r="M362" s="2"/>
     </row>
     <row r="363" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A363" s="44"/>
-      <c r="B363" s="7"/>
+      <c r="A363" s="39"/>
+      <c r="B363" s="51"/>
       <c r="C363" s="6"/>
       <c r="D363" s="7"/>
       <c r="E363" s="1"/>
@@ -15195,8 +15317,8 @@
       <c r="M363" s="2"/>
     </row>
     <row r="364" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A364" s="44"/>
-      <c r="B364" s="7"/>
+      <c r="A364" s="39"/>
+      <c r="B364" s="51"/>
       <c r="C364" s="6"/>
       <c r="D364" s="7"/>
       <c r="E364" s="1"/>
@@ -15209,8 +15331,8 @@
       <c r="M364" s="2"/>
     </row>
     <row r="365" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A365" s="44"/>
-      <c r="B365" s="7"/>
+      <c r="A365" s="39"/>
+      <c r="B365" s="51"/>
       <c r="C365" s="6"/>
       <c r="D365" s="7"/>
       <c r="E365" s="1"/>
@@ -15223,8 +15345,8 @@
       <c r="M365" s="2"/>
     </row>
     <row r="366" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A366" s="44"/>
-      <c r="B366" s="7"/>
+      <c r="A366" s="39"/>
+      <c r="B366" s="51"/>
       <c r="C366" s="6"/>
       <c r="D366" s="7"/>
       <c r="E366" s="1"/>
@@ -15237,8 +15359,8 @@
       <c r="M366" s="2"/>
     </row>
     <row r="367" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A367" s="44"/>
-      <c r="B367" s="7"/>
+      <c r="A367" s="39"/>
+      <c r="B367" s="51"/>
       <c r="C367" s="6"/>
       <c r="D367" s="7"/>
       <c r="E367" s="1"/>
@@ -15251,8 +15373,8 @@
       <c r="M367" s="2"/>
     </row>
     <row r="368" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A368" s="44"/>
-      <c r="B368" s="7"/>
+      <c r="A368" s="39"/>
+      <c r="B368" s="51"/>
       <c r="C368" s="6"/>
       <c r="D368" s="7"/>
       <c r="E368" s="1"/>
@@ -15265,8 +15387,8 @@
       <c r="M368" s="2"/>
     </row>
     <row r="369" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A369" s="44"/>
-      <c r="B369" s="7"/>
+      <c r="A369" s="39"/>
+      <c r="B369" s="51"/>
       <c r="C369" s="6"/>
       <c r="D369" s="7"/>
       <c r="E369" s="1"/>
@@ -15279,8 +15401,8 @@
       <c r="M369" s="2"/>
     </row>
     <row r="370" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A370" s="44"/>
-      <c r="B370" s="7"/>
+      <c r="A370" s="39"/>
+      <c r="B370" s="51"/>
       <c r="C370" s="6"/>
       <c r="D370" s="7"/>
       <c r="E370" s="1"/>
@@ -15293,8 +15415,8 @@
       <c r="M370" s="2"/>
     </row>
     <row r="371" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A371" s="44"/>
-      <c r="B371" s="7"/>
+      <c r="A371" s="39"/>
+      <c r="B371" s="51"/>
       <c r="C371" s="6"/>
       <c r="D371" s="7"/>
       <c r="E371" s="1"/>
@@ -15307,8 +15429,8 @@
       <c r="M371" s="2"/>
     </row>
     <row r="372" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A372" s="44"/>
-      <c r="B372" s="7"/>
+      <c r="A372" s="39"/>
+      <c r="B372" s="51"/>
       <c r="C372" s="6"/>
       <c r="D372" s="7"/>
       <c r="E372" s="1"/>
@@ -15321,8 +15443,8 @@
       <c r="M372" s="2"/>
     </row>
     <row r="373" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A373" s="44"/>
-      <c r="B373" s="7"/>
+      <c r="A373" s="39"/>
+      <c r="B373" s="51"/>
       <c r="C373" s="6"/>
       <c r="D373" s="7"/>
       <c r="E373" s="1"/>
@@ -15335,8 +15457,8 @@
       <c r="M373" s="2"/>
     </row>
     <row r="374" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A374" s="44"/>
-      <c r="B374" s="7"/>
+      <c r="A374" s="39"/>
+      <c r="B374" s="51"/>
       <c r="C374" s="6"/>
       <c r="D374" s="7"/>
       <c r="E374" s="1"/>
@@ -15349,8 +15471,8 @@
       <c r="M374" s="2"/>
     </row>
     <row r="375" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A375" s="44"/>
-      <c r="B375" s="7"/>
+      <c r="A375" s="39"/>
+      <c r="B375" s="51"/>
       <c r="C375" s="6"/>
       <c r="D375" s="7"/>
       <c r="E375" s="1"/>
@@ -15363,8 +15485,8 @@
       <c r="M375" s="2"/>
     </row>
     <row r="376" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A376" s="44"/>
-      <c r="B376" s="7"/>
+      <c r="A376" s="39"/>
+      <c r="B376" s="51"/>
       <c r="C376" s="6"/>
       <c r="D376" s="7"/>
       <c r="E376" s="1"/>
@@ -15377,8 +15499,8 @@
       <c r="M376" s="2"/>
     </row>
     <row r="377" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A377" s="44"/>
-      <c r="B377" s="7"/>
+      <c r="A377" s="39"/>
+      <c r="B377" s="51"/>
       <c r="C377" s="6"/>
       <c r="D377" s="7"/>
       <c r="E377" s="1"/>
@@ -15391,8 +15513,8 @@
       <c r="M377" s="2"/>
     </row>
     <row r="378" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A378" s="44"/>
-      <c r="B378" s="7"/>
+      <c r="A378" s="39"/>
+      <c r="B378" s="51"/>
       <c r="C378" s="6"/>
       <c r="D378" s="7"/>
       <c r="E378" s="1"/>
@@ -15405,8 +15527,8 @@
       <c r="M378" s="2"/>
     </row>
     <row r="379" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A379" s="44"/>
-      <c r="B379" s="7"/>
+      <c r="A379" s="39"/>
+      <c r="B379" s="51"/>
       <c r="C379" s="6"/>
       <c r="D379" s="7"/>
       <c r="E379" s="1"/>
@@ -15419,8 +15541,8 @@
       <c r="M379" s="2"/>
     </row>
     <row r="380" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A380" s="44"/>
-      <c r="B380" s="7"/>
+      <c r="A380" s="39"/>
+      <c r="B380" s="51"/>
       <c r="C380" s="6"/>
       <c r="D380" s="7"/>
       <c r="E380" s="1"/>
@@ -15433,8 +15555,8 @@
       <c r="M380" s="2"/>
     </row>
     <row r="381" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A381" s="44"/>
-      <c r="B381" s="7"/>
+      <c r="A381" s="39"/>
+      <c r="B381" s="51"/>
       <c r="C381" s="6"/>
       <c r="D381" s="7"/>
       <c r="E381" s="1"/>
@@ -15447,8 +15569,8 @@
       <c r="M381" s="2"/>
     </row>
     <row r="382" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A382" s="44"/>
-      <c r="B382" s="7"/>
+      <c r="A382" s="39"/>
+      <c r="B382" s="51"/>
       <c r="C382" s="6"/>
       <c r="D382" s="7"/>
       <c r="E382" s="1"/>
@@ -15461,8 +15583,8 @@
       <c r="M382" s="2"/>
     </row>
     <row r="383" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A383" s="44"/>
-      <c r="B383" s="7"/>
+      <c r="A383" s="39"/>
+      <c r="B383" s="51"/>
       <c r="C383" s="6"/>
       <c r="D383" s="7"/>
       <c r="E383" s="1"/>
@@ -15475,8 +15597,8 @@
       <c r="M383" s="2"/>
     </row>
     <row r="384" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A384" s="44"/>
-      <c r="B384" s="7"/>
+      <c r="A384" s="39"/>
+      <c r="B384" s="51"/>
       <c r="C384" s="6"/>
       <c r="D384" s="7"/>
       <c r="E384" s="1"/>
@@ -15489,8 +15611,8 @@
       <c r="M384" s="2"/>
     </row>
     <row r="385" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A385" s="44"/>
-      <c r="B385" s="7"/>
+      <c r="A385" s="39"/>
+      <c r="B385" s="51"/>
       <c r="C385" s="6"/>
       <c r="D385" s="7"/>
       <c r="E385" s="1"/>
@@ -15503,8 +15625,8 @@
       <c r="M385" s="2"/>
     </row>
     <row r="386" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A386" s="44"/>
-      <c r="B386" s="7"/>
+      <c r="A386" s="39"/>
+      <c r="B386" s="51"/>
       <c r="C386" s="6"/>
       <c r="D386" s="7"/>
       <c r="E386" s="1"/>
@@ -15517,8 +15639,8 @@
       <c r="M386" s="2"/>
     </row>
     <row r="387" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A387" s="44"/>
-      <c r="B387" s="7"/>
+      <c r="A387" s="39"/>
+      <c r="B387" s="51"/>
       <c r="C387" s="6"/>
       <c r="D387" s="7"/>
       <c r="E387" s="1"/>
@@ -15531,8 +15653,8 @@
       <c r="M387" s="2"/>
     </row>
     <row r="388" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A388" s="44"/>
-      <c r="B388" s="7"/>
+      <c r="A388" s="39"/>
+      <c r="B388" s="51"/>
       <c r="C388" s="6"/>
       <c r="D388" s="7"/>
       <c r="E388" s="1"/>
@@ -15545,8 +15667,8 @@
       <c r="M388" s="2"/>
     </row>
     <row r="389" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A389" s="44"/>
-      <c r="B389" s="7"/>
+      <c r="A389" s="39"/>
+      <c r="B389" s="51"/>
       <c r="C389" s="6"/>
       <c r="D389" s="7"/>
       <c r="E389" s="1"/>
@@ -15559,8 +15681,8 @@
       <c r="M389" s="2"/>
     </row>
     <row r="390" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A390" s="44"/>
-      <c r="B390" s="7"/>
+      <c r="A390" s="39"/>
+      <c r="B390" s="51"/>
       <c r="C390" s="6"/>
       <c r="D390" s="7"/>
       <c r="E390" s="1"/>
@@ -15573,8 +15695,8 @@
       <c r="M390" s="2"/>
     </row>
     <row r="391" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A391" s="44"/>
-      <c r="B391" s="7"/>
+      <c r="A391" s="39"/>
+      <c r="B391" s="51"/>
       <c r="C391" s="6"/>
       <c r="D391" s="7"/>
       <c r="E391" s="1"/>
@@ -15587,8 +15709,8 @@
       <c r="M391" s="2"/>
     </row>
     <row r="392" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A392" s="44"/>
-      <c r="B392" s="7"/>
+      <c r="A392" s="39"/>
+      <c r="B392" s="51"/>
       <c r="C392" s="6"/>
       <c r="D392" s="7"/>
       <c r="E392" s="1"/>
@@ -15601,8 +15723,8 @@
       <c r="M392" s="2"/>
     </row>
     <row r="393" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A393" s="44"/>
-      <c r="B393" s="7"/>
+      <c r="A393" s="39"/>
+      <c r="B393" s="51"/>
       <c r="C393" s="6"/>
       <c r="D393" s="7"/>
       <c r="E393" s="1"/>
@@ -15615,8 +15737,8 @@
       <c r="M393" s="2"/>
     </row>
     <row r="394" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A394" s="44"/>
-      <c r="B394" s="7"/>
+      <c r="A394" s="39"/>
+      <c r="B394" s="51"/>
       <c r="C394" s="6"/>
       <c r="D394" s="7"/>
       <c r="E394" s="1"/>
@@ -15629,8 +15751,8 @@
       <c r="M394" s="2"/>
     </row>
     <row r="395" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A395" s="44"/>
-      <c r="B395" s="7"/>
+      <c r="A395" s="39"/>
+      <c r="B395" s="51"/>
       <c r="C395" s="6"/>
       <c r="D395" s="7"/>
       <c r="E395" s="1"/>
@@ -15643,8 +15765,8 @@
       <c r="M395" s="2"/>
     </row>
     <row r="396" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A396" s="44"/>
-      <c r="B396" s="7"/>
+      <c r="A396" s="39"/>
+      <c r="B396" s="51"/>
       <c r="C396" s="6"/>
       <c r="D396" s="7"/>
       <c r="E396" s="1"/>
@@ -15657,8 +15779,8 @@
       <c r="M396" s="2"/>
     </row>
     <row r="397" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A397" s="44"/>
-      <c r="B397" s="7"/>
+      <c r="A397" s="39"/>
+      <c r="B397" s="51"/>
       <c r="C397" s="6"/>
       <c r="D397" s="7"/>
       <c r="E397" s="1"/>
@@ -15671,8 +15793,8 @@
       <c r="M397" s="2"/>
     </row>
     <row r="398" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A398" s="44"/>
-      <c r="B398" s="7"/>
+      <c r="A398" s="39"/>
+      <c r="B398" s="51"/>
       <c r="C398" s="6"/>
       <c r="D398" s="7"/>
       <c r="E398" s="1"/>
@@ -15685,8 +15807,8 @@
       <c r="M398" s="2"/>
     </row>
     <row r="399" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A399" s="44"/>
-      <c r="B399" s="7"/>
+      <c r="A399" s="39"/>
+      <c r="B399" s="51"/>
       <c r="C399" s="6"/>
       <c r="D399" s="7"/>
       <c r="E399" s="1"/>
@@ -15699,8 +15821,8 @@
       <c r="M399" s="2"/>
     </row>
     <row r="400" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A400" s="44"/>
-      <c r="B400" s="7"/>
+      <c r="A400" s="39"/>
+      <c r="B400" s="51"/>
       <c r="C400" s="6"/>
       <c r="D400" s="7"/>
       <c r="E400" s="1"/>
@@ -15713,8 +15835,8 @@
       <c r="M400" s="2"/>
     </row>
     <row r="401" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A401" s="44"/>
-      <c r="B401" s="7"/>
+      <c r="A401" s="39"/>
+      <c r="B401" s="51"/>
       <c r="C401" s="6"/>
       <c r="D401" s="7"/>
       <c r="E401" s="1"/>
@@ -15727,8 +15849,8 @@
       <c r="M401" s="2"/>
     </row>
     <row r="402" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A402" s="44"/>
-      <c r="B402" s="7"/>
+      <c r="A402" s="39"/>
+      <c r="B402" s="51"/>
       <c r="C402" s="6"/>
       <c r="D402" s="7"/>
       <c r="E402" s="1"/>
@@ -15741,8 +15863,8 @@
       <c r="M402" s="2"/>
     </row>
     <row r="403" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A403" s="44"/>
-      <c r="B403" s="7"/>
+      <c r="A403" s="39"/>
+      <c r="B403" s="51"/>
       <c r="C403" s="6"/>
       <c r="D403" s="7"/>
       <c r="E403" s="1"/>
@@ -15755,8 +15877,8 @@
       <c r="M403" s="2"/>
     </row>
     <row r="404" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A404" s="44"/>
-      <c r="B404" s="7"/>
+      <c r="A404" s="39"/>
+      <c r="B404" s="51"/>
       <c r="C404" s="6"/>
       <c r="D404" s="7"/>
       <c r="E404" s="1"/>
@@ -15769,8 +15891,8 @@
       <c r="M404" s="2"/>
     </row>
     <row r="405" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A405" s="44"/>
-      <c r="B405" s="7"/>
+      <c r="A405" s="39"/>
+      <c r="B405" s="51"/>
       <c r="C405" s="6"/>
       <c r="D405" s="7"/>
       <c r="E405" s="1"/>
@@ -15783,8 +15905,8 @@
       <c r="M405" s="2"/>
     </row>
     <row r="406" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A406" s="44"/>
-      <c r="B406" s="7"/>
+      <c r="A406" s="39"/>
+      <c r="B406" s="51"/>
       <c r="C406" s="6"/>
       <c r="D406" s="7"/>
       <c r="E406" s="1"/>
@@ -15797,8 +15919,8 @@
       <c r="M406" s="2"/>
     </row>
     <row r="407" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A407" s="44"/>
-      <c r="B407" s="7"/>
+      <c r="A407" s="39"/>
+      <c r="B407" s="51"/>
       <c r="C407" s="6"/>
       <c r="D407" s="7"/>
       <c r="E407" s="1"/>
@@ -15811,8 +15933,8 @@
       <c r="M407" s="2"/>
     </row>
     <row r="408" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A408" s="44"/>
-      <c r="B408" s="7"/>
+      <c r="A408" s="39"/>
+      <c r="B408" s="51"/>
       <c r="C408" s="6"/>
       <c r="D408" s="7"/>
       <c r="E408" s="1"/>
@@ -15825,8 +15947,8 @@
       <c r="M408" s="2"/>
     </row>
     <row r="409" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A409" s="44"/>
-      <c r="B409" s="7"/>
+      <c r="A409" s="39"/>
+      <c r="B409" s="51"/>
       <c r="C409" s="6"/>
       <c r="D409" s="7"/>
       <c r="E409" s="1"/>
@@ -15839,8 +15961,8 @@
       <c r="M409" s="2"/>
     </row>
     <row r="410" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A410" s="44"/>
-      <c r="B410" s="7"/>
+      <c r="A410" s="39"/>
+      <c r="B410" s="51"/>
       <c r="C410" s="6"/>
       <c r="D410" s="7"/>
       <c r="E410" s="1"/>
@@ -15853,8 +15975,8 @@
       <c r="M410" s="2"/>
     </row>
     <row r="411" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A411" s="44"/>
-      <c r="B411" s="7"/>
+      <c r="A411" s="39"/>
+      <c r="B411" s="51"/>
       <c r="C411" s="6"/>
       <c r="D411" s="7"/>
       <c r="E411" s="1"/>
@@ -15867,8 +15989,8 @@
       <c r="M411" s="2"/>
     </row>
     <row r="412" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A412" s="44"/>
-      <c r="B412" s="7"/>
+      <c r="A412" s="39"/>
+      <c r="B412" s="51"/>
       <c r="C412" s="6"/>
       <c r="D412" s="7"/>
       <c r="E412" s="1"/>
@@ -15881,8 +16003,8 @@
       <c r="M412" s="2"/>
     </row>
     <row r="413" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A413" s="44"/>
-      <c r="B413" s="7"/>
+      <c r="A413" s="39"/>
+      <c r="B413" s="51"/>
       <c r="C413" s="6"/>
       <c r="D413" s="7"/>
       <c r="E413" s="1"/>
@@ -15895,8 +16017,8 @@
       <c r="M413" s="2"/>
     </row>
     <row r="414" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A414" s="44"/>
-      <c r="B414" s="7"/>
+      <c r="A414" s="39"/>
+      <c r="B414" s="51"/>
       <c r="C414" s="6"/>
       <c r="D414" s="7"/>
       <c r="E414" s="1"/>
@@ -15909,8 +16031,8 @@
       <c r="M414" s="2"/>
     </row>
     <row r="415" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A415" s="44"/>
-      <c r="B415" s="7"/>
+      <c r="A415" s="39"/>
+      <c r="B415" s="51"/>
       <c r="C415" s="6"/>
       <c r="D415" s="7"/>
       <c r="E415" s="1"/>
@@ -15923,8 +16045,8 @@
       <c r="M415" s="2"/>
     </row>
     <row r="416" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A416" s="44"/>
-      <c r="B416" s="7"/>
+      <c r="A416" s="39"/>
+      <c r="B416" s="51"/>
       <c r="C416" s="6"/>
       <c r="D416" s="7"/>
       <c r="E416" s="1"/>
@@ -15937,8 +16059,8 @@
       <c r="M416" s="2"/>
     </row>
     <row r="417" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A417" s="44"/>
-      <c r="B417" s="7"/>
+      <c r="A417" s="39"/>
+      <c r="B417" s="51"/>
       <c r="C417" s="6"/>
       <c r="D417" s="7"/>
       <c r="E417" s="1"/>
@@ -15951,8 +16073,8 @@
       <c r="M417" s="2"/>
     </row>
     <row r="418" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A418" s="44"/>
-      <c r="B418" s="7"/>
+      <c r="A418" s="39"/>
+      <c r="B418" s="51"/>
       <c r="C418" s="6"/>
       <c r="D418" s="7"/>
       <c r="E418" s="1"/>
@@ -15965,8 +16087,8 @@
       <c r="M418" s="2"/>
     </row>
     <row r="419" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A419" s="44"/>
-      <c r="B419" s="7"/>
+      <c r="A419" s="39"/>
+      <c r="B419" s="51"/>
       <c r="C419" s="6"/>
       <c r="D419" s="7"/>
       <c r="E419" s="1"/>
@@ -15979,8 +16101,8 @@
       <c r="M419" s="2"/>
     </row>
     <row r="420" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A420" s="44"/>
-      <c r="B420" s="7"/>
+      <c r="A420" s="39"/>
+      <c r="B420" s="51"/>
       <c r="C420" s="6"/>
       <c r="D420" s="7"/>
       <c r="E420" s="1"/>
@@ -15993,8 +16115,8 @@
       <c r="M420" s="2"/>
     </row>
     <row r="421" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A421" s="44"/>
-      <c r="B421" s="7"/>
+      <c r="A421" s="39"/>
+      <c r="B421" s="51"/>
       <c r="C421" s="6"/>
       <c r="D421" s="7"/>
       <c r="E421" s="1"/>
@@ -16007,8 +16129,8 @@
       <c r="M421" s="2"/>
     </row>
     <row r="422" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A422" s="44"/>
-      <c r="B422" s="7"/>
+      <c r="A422" s="39"/>
+      <c r="B422" s="51"/>
       <c r="C422" s="6"/>
       <c r="D422" s="7"/>
       <c r="E422" s="1"/>
@@ -16021,8 +16143,8 @@
       <c r="M422" s="2"/>
     </row>
     <row r="423" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A423" s="44"/>
-      <c r="B423" s="7"/>
+      <c r="A423" s="39"/>
+      <c r="B423" s="51"/>
       <c r="C423" s="6"/>
       <c r="D423" s="7"/>
       <c r="E423" s="1"/>
@@ -16035,8 +16157,8 @@
       <c r="M423" s="2"/>
     </row>
     <row r="424" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A424" s="44"/>
-      <c r="B424" s="7"/>
+      <c r="A424" s="39"/>
+      <c r="B424" s="51"/>
       <c r="C424" s="6"/>
       <c r="D424" s="7"/>
       <c r="E424" s="1"/>
@@ -16049,8 +16171,8 @@
       <c r="M424" s="2"/>
     </row>
     <row r="425" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A425" s="44"/>
-      <c r="B425" s="7"/>
+      <c r="A425" s="39"/>
+      <c r="B425" s="51"/>
       <c r="C425" s="6"/>
       <c r="D425" s="7"/>
       <c r="E425" s="1"/>
@@ -16063,8 +16185,8 @@
       <c r="M425" s="2"/>
     </row>
     <row r="426" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A426" s="44"/>
-      <c r="B426" s="7"/>
+      <c r="A426" s="39"/>
+      <c r="B426" s="51"/>
       <c r="C426" s="6"/>
       <c r="D426" s="7"/>
       <c r="E426" s="1"/>
@@ -16077,8 +16199,8 @@
       <c r="M426" s="2"/>
     </row>
     <row r="427" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A427" s="44"/>
-      <c r="B427" s="7"/>
+      <c r="A427" s="39"/>
+      <c r="B427" s="51"/>
       <c r="C427" s="6"/>
       <c r="D427" s="7"/>
       <c r="E427" s="1"/>
@@ -16091,8 +16213,8 @@
       <c r="M427" s="2"/>
     </row>
     <row r="428" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A428" s="44"/>
-      <c r="B428" s="7"/>
+      <c r="A428" s="39"/>
+      <c r="B428" s="51"/>
       <c r="C428" s="6"/>
       <c r="D428" s="7"/>
       <c r="E428" s="1"/>
@@ -16105,8 +16227,8 @@
       <c r="M428" s="2"/>
     </row>
     <row r="429" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A429" s="44"/>
-      <c r="B429" s="7"/>
+      <c r="A429" s="39"/>
+      <c r="B429" s="51"/>
       <c r="C429" s="6"/>
       <c r="D429" s="7"/>
       <c r="E429" s="1"/>
@@ -16119,8 +16241,8 @@
       <c r="M429" s="2"/>
     </row>
     <row r="430" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A430" s="44"/>
-      <c r="B430" s="7"/>
+      <c r="A430" s="39"/>
+      <c r="B430" s="51"/>
       <c r="C430" s="6"/>
       <c r="D430" s="7"/>
       <c r="E430" s="1"/>
@@ -16133,8 +16255,8 @@
       <c r="M430" s="2"/>
     </row>
     <row r="431" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A431" s="44"/>
-      <c r="B431" s="7"/>
+      <c r="A431" s="39"/>
+      <c r="B431" s="51"/>
       <c r="C431" s="6"/>
       <c r="D431" s="7"/>
       <c r="E431" s="1"/>
@@ -16147,8 +16269,8 @@
       <c r="M431" s="2"/>
     </row>
     <row r="432" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A432" s="44"/>
-      <c r="B432" s="7"/>
+      <c r="A432" s="39"/>
+      <c r="B432" s="51"/>
       <c r="C432" s="6"/>
       <c r="D432" s="7"/>
       <c r="E432" s="1"/>
@@ -16161,8 +16283,8 @@
       <c r="M432" s="2"/>
     </row>
     <row r="433" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A433" s="44"/>
-      <c r="B433" s="7"/>
+      <c r="A433" s="39"/>
+      <c r="B433" s="51"/>
       <c r="C433" s="6"/>
       <c r="D433" s="7"/>
       <c r="E433" s="1"/>
@@ -16175,8 +16297,8 @@
       <c r="M433" s="2"/>
     </row>
     <row r="434" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A434" s="44"/>
-      <c r="B434" s="7"/>
+      <c r="A434" s="39"/>
+      <c r="B434" s="51"/>
       <c r="C434" s="6"/>
       <c r="D434" s="7"/>
       <c r="E434" s="1"/>
@@ -16189,8 +16311,8 @@
       <c r="M434" s="2"/>
     </row>
     <row r="435" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A435" s="44"/>
-      <c r="B435" s="7"/>
+      <c r="A435" s="39"/>
+      <c r="B435" s="51"/>
       <c r="C435" s="6"/>
       <c r="D435" s="7"/>
       <c r="E435" s="1"/>
@@ -16203,8 +16325,8 @@
       <c r="M435" s="2"/>
     </row>
     <row r="436" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A436" s="44"/>
-      <c r="B436" s="7"/>
+      <c r="A436" s="39"/>
+      <c r="B436" s="51"/>
       <c r="C436" s="6"/>
       <c r="D436" s="7"/>
       <c r="E436" s="1"/>
@@ -16217,8 +16339,8 @@
       <c r="M436" s="2"/>
     </row>
     <row r="437" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A437" s="44"/>
-      <c r="B437" s="7"/>
+      <c r="A437" s="39"/>
+      <c r="B437" s="51"/>
       <c r="C437" s="6"/>
       <c r="D437" s="7"/>
       <c r="E437" s="1"/>
@@ -16231,8 +16353,8 @@
       <c r="M437" s="2"/>
     </row>
     <row r="438" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A438" s="44"/>
-      <c r="B438" s="7"/>
+      <c r="A438" s="39"/>
+      <c r="B438" s="51"/>
       <c r="C438" s="6"/>
       <c r="D438" s="7"/>
       <c r="E438" s="1"/>
@@ -16245,8 +16367,8 @@
       <c r="M438" s="2"/>
     </row>
     <row r="439" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A439" s="44"/>
-      <c r="B439" s="7"/>
+      <c r="A439" s="39"/>
+      <c r="B439" s="51"/>
       <c r="C439" s="6"/>
       <c r="D439" s="7"/>
       <c r="E439" s="1"/>
@@ -16259,8 +16381,8 @@
       <c r="M439" s="2"/>
     </row>
     <row r="440" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A440" s="44"/>
-      <c r="B440" s="7"/>
+      <c r="A440" s="39"/>
+      <c r="B440" s="51"/>
       <c r="C440" s="6"/>
       <c r="D440" s="7"/>
       <c r="E440" s="1"/>
@@ -16273,8 +16395,8 @@
       <c r="M440" s="2"/>
     </row>
     <row r="441" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A441" s="44"/>
-      <c r="B441" s="7"/>
+      <c r="A441" s="39"/>
+      <c r="B441" s="51"/>
       <c r="C441" s="6"/>
       <c r="D441" s="7"/>
       <c r="E441" s="1"/>
@@ -16287,8 +16409,8 @@
       <c r="M441" s="2"/>
     </row>
     <row r="442" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A442" s="44"/>
-      <c r="B442" s="7"/>
+      <c r="A442" s="39"/>
+      <c r="B442" s="51"/>
       <c r="C442" s="6"/>
       <c r="D442" s="7"/>
       <c r="E442" s="1"/>
@@ -16301,8 +16423,8 @@
       <c r="M442" s="2"/>
     </row>
     <row r="443" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A443" s="44"/>
-      <c r="B443" s="7"/>
+      <c r="A443" s="39"/>
+      <c r="B443" s="51"/>
       <c r="C443" s="6"/>
       <c r="D443" s="7"/>
       <c r="E443" s="1"/>
@@ -16315,8 +16437,8 @@
       <c r="M443" s="2"/>
     </row>
     <row r="444" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A444" s="44"/>
-      <c r="B444" s="7"/>
+      <c r="A444" s="39"/>
+      <c r="B444" s="51"/>
       <c r="C444" s="6"/>
       <c r="D444" s="7"/>
       <c r="E444" s="1"/>
@@ -16329,8 +16451,8 @@
       <c r="M444" s="2"/>
     </row>
     <row r="445" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A445" s="44"/>
-      <c r="B445" s="7"/>
+      <c r="A445" s="39"/>
+      <c r="B445" s="51"/>
       <c r="C445" s="6"/>
       <c r="D445" s="7"/>
       <c r="E445" s="1"/>
@@ -16343,8 +16465,8 @@
       <c r="M445" s="2"/>
     </row>
     <row r="446" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A446" s="44"/>
-      <c r="B446" s="7"/>
+      <c r="A446" s="39"/>
+      <c r="B446" s="51"/>
       <c r="C446" s="6"/>
       <c r="D446" s="7"/>
       <c r="E446" s="1"/>
@@ -16357,8 +16479,8 @@
       <c r="M446" s="2"/>
     </row>
     <row r="447" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A447" s="44"/>
-      <c r="B447" s="7"/>
+      <c r="A447" s="39"/>
+      <c r="B447" s="51"/>
       <c r="C447" s="6"/>
       <c r="D447" s="7"/>
       <c r="E447" s="1"/>
@@ -16371,8 +16493,8 @@
       <c r="M447" s="2"/>
     </row>
     <row r="448" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A448" s="44"/>
-      <c r="B448" s="7"/>
+      <c r="A448" s="39"/>
+      <c r="B448" s="51"/>
       <c r="C448" s="6"/>
       <c r="D448" s="7"/>
       <c r="E448" s="1"/>
@@ -16385,8 +16507,8 @@
       <c r="M448" s="2"/>
     </row>
     <row r="449" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A449" s="44"/>
-      <c r="B449" s="7"/>
+      <c r="A449" s="39"/>
+      <c r="B449" s="51"/>
       <c r="C449" s="6"/>
       <c r="D449" s="7"/>
       <c r="E449" s="1"/>
@@ -16399,8 +16521,8 @@
       <c r="M449" s="2"/>
     </row>
     <row r="450" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A450" s="44"/>
-      <c r="B450" s="7"/>
+      <c r="A450" s="39"/>
+      <c r="B450" s="51"/>
       <c r="C450" s="6"/>
       <c r="D450" s="7"/>
       <c r="E450" s="1"/>
@@ -16413,8 +16535,8 @@
       <c r="M450" s="2"/>
     </row>
     <row r="451" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A451" s="44"/>
-      <c r="B451" s="7"/>
+      <c r="A451" s="39"/>
+      <c r="B451" s="51"/>
       <c r="C451" s="6"/>
       <c r="D451" s="7"/>
       <c r="E451" s="1"/>
@@ -16427,8 +16549,8 @@
       <c r="M451" s="2"/>
     </row>
     <row r="452" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A452" s="44"/>
-      <c r="B452" s="7"/>
+      <c r="A452" s="39"/>
+      <c r="B452" s="51"/>
       <c r="C452" s="6"/>
       <c r="D452" s="7"/>
       <c r="E452" s="1"/>
@@ -16441,8 +16563,8 @@
       <c r="M452" s="2"/>
     </row>
     <row r="453" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A453" s="44"/>
-      <c r="B453" s="7"/>
+      <c r="A453" s="39"/>
+      <c r="B453" s="51"/>
       <c r="C453" s="6"/>
       <c r="D453" s="7"/>
       <c r="E453" s="1"/>
@@ -16455,8 +16577,8 @@
       <c r="M453" s="2"/>
     </row>
     <row r="454" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A454" s="44"/>
-      <c r="B454" s="7"/>
+      <c r="A454" s="39"/>
+      <c r="B454" s="51"/>
       <c r="C454" s="6"/>
       <c r="D454" s="7"/>
       <c r="E454" s="1"/>
@@ -16469,8 +16591,8 @@
       <c r="M454" s="2"/>
     </row>
     <row r="455" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A455" s="44"/>
-      <c r="B455" s="7"/>
+      <c r="A455" s="39"/>
+      <c r="B455" s="51"/>
       <c r="C455" s="6"/>
       <c r="D455" s="7"/>
       <c r="E455" s="1"/>
@@ -16483,8 +16605,8 @@
       <c r="M455" s="2"/>
     </row>
     <row r="456" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A456" s="44"/>
-      <c r="B456" s="7"/>
+      <c r="A456" s="39"/>
+      <c r="B456" s="51"/>
       <c r="C456" s="6"/>
       <c r="D456" s="7"/>
       <c r="E456" s="1"/>
@@ -16497,8 +16619,8 @@
       <c r="M456" s="2"/>
     </row>
     <row r="457" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A457" s="44"/>
-      <c r="B457" s="7"/>
+      <c r="A457" s="39"/>
+      <c r="B457" s="51"/>
       <c r="C457" s="6"/>
       <c r="D457" s="7"/>
       <c r="E457" s="1"/>
@@ -16511,8 +16633,8 @@
       <c r="M457" s="2"/>
     </row>
     <row r="458" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A458" s="44"/>
-      <c r="B458" s="7"/>
+      <c r="A458" s="39"/>
+      <c r="B458" s="51"/>
       <c r="C458" s="6"/>
       <c r="D458" s="7"/>
       <c r="E458" s="1"/>
@@ -16525,8 +16647,8 @@
       <c r="M458" s="2"/>
     </row>
     <row r="459" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A459" s="44"/>
-      <c r="B459" s="7"/>
+      <c r="A459" s="39"/>
+      <c r="B459" s="51"/>
       <c r="C459" s="6"/>
       <c r="D459" s="7"/>
       <c r="E459" s="1"/>
@@ -16539,8 +16661,8 @@
       <c r="M459" s="2"/>
     </row>
     <row r="460" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A460" s="44"/>
-      <c r="B460" s="7"/>
+      <c r="A460" s="39"/>
+      <c r="B460" s="51"/>
       <c r="C460" s="6"/>
       <c r="D460" s="7"/>
       <c r="E460" s="1"/>
@@ -16553,8 +16675,8 @@
       <c r="M460" s="2"/>
     </row>
     <row r="461" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A461" s="44"/>
-      <c r="B461" s="7"/>
+      <c r="A461" s="39"/>
+      <c r="B461" s="51"/>
       <c r="C461" s="6"/>
       <c r="D461" s="7"/>
       <c r="E461" s="1"/>
@@ -16567,8 +16689,8 @@
       <c r="M461" s="2"/>
     </row>
     <row r="462" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A462" s="44"/>
-      <c r="B462" s="7"/>
+      <c r="A462" s="39"/>
+      <c r="B462" s="51"/>
       <c r="C462" s="6"/>
       <c r="D462" s="7"/>
       <c r="E462" s="1"/>
@@ -16581,8 +16703,8 @@
       <c r="M462" s="2"/>
     </row>
     <row r="463" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A463" s="44"/>
-      <c r="B463" s="7"/>
+      <c r="A463" s="39"/>
+      <c r="B463" s="51"/>
       <c r="C463" s="6"/>
       <c r="D463" s="7"/>
       <c r="E463" s="1"/>
@@ -16595,8 +16717,8 @@
       <c r="M463" s="2"/>
     </row>
     <row r="464" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A464" s="44"/>
-      <c r="B464" s="7"/>
+      <c r="A464" s="39"/>
+      <c r="B464" s="51"/>
       <c r="C464" s="6"/>
       <c r="D464" s="7"/>
       <c r="E464" s="1"/>
@@ -16609,8 +16731,8 @@
       <c r="M464" s="2"/>
     </row>
     <row r="465" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A465" s="44"/>
-      <c r="B465" s="7"/>
+      <c r="A465" s="39"/>
+      <c r="B465" s="51"/>
       <c r="C465" s="6"/>
       <c r="D465" s="7"/>
       <c r="E465" s="1"/>
@@ -16623,8 +16745,8 @@
       <c r="M465" s="2"/>
     </row>
     <row r="466" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A466" s="44"/>
-      <c r="B466" s="7"/>
+      <c r="A466" s="39"/>
+      <c r="B466" s="51"/>
       <c r="C466" s="6"/>
       <c r="D466" s="7"/>
       <c r="E466" s="1"/>
@@ -16637,8 +16759,8 @@
       <c r="M466" s="2"/>
     </row>
     <row r="467" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A467" s="44"/>
-      <c r="B467" s="7"/>
+      <c r="A467" s="39"/>
+      <c r="B467" s="51"/>
       <c r="C467" s="6"/>
       <c r="D467" s="7"/>
       <c r="E467" s="1"/>
@@ -16651,8 +16773,8 @@
       <c r="M467" s="2"/>
     </row>
     <row r="468" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A468" s="44"/>
-      <c r="B468" s="7"/>
+      <c r="A468" s="39"/>
+      <c r="B468" s="51"/>
       <c r="C468" s="6"/>
       <c r="D468" s="7"/>
       <c r="E468" s="1"/>
@@ -16665,8 +16787,8 @@
       <c r="M468" s="2"/>
     </row>
     <row r="469" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A469" s="44"/>
-      <c r="B469" s="7"/>
+      <c r="A469" s="39"/>
+      <c r="B469" s="51"/>
       <c r="C469" s="6"/>
       <c r="D469" s="7"/>
       <c r="E469" s="1"/>
@@ -16686,8 +16808,15 @@
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="A1:A1048576">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="8" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="6" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:C1048576">
+    <cfRule type="duplicateValues" dxfId="5" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B1048576">
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
     <hyperlink ref="D100" r:id="rId1" xr:uid="{E41ACBB9-A788-4665-8884-23E4194F2909}"/>
